--- a/mallar/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
+++ b/mallar/Protokoll 2019 skritt- och lättklass lag_o_ind(mall).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B6518-AE57-46A9-87BE-F8D4FB01CC40}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82D5EB3-A6A4-4439-831D-0643B741E7F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="2588" windowWidth="16200" windowHeight="9397" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="154">
   <si>
     <t>Kommentarer</t>
   </si>
@@ -617,22 +617,13 @@
     <t>Lätt klass lag typ 2</t>
   </si>
   <si>
-    <t>Lätt lagkür typ 2</t>
-  </si>
-  <si>
     <t>Lättklass lag typ 1</t>
-  </si>
-  <si>
-    <t>Lättklass lag typ 2</t>
   </si>
   <si>
     <t>Lätt lag grund</t>
   </si>
   <si>
     <t>Skritt klass lag typ 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lättklass lag typ 2 innebär att voltigörerna tillsammans gör en tidsbegränsad kür där de maximalt får vara två på hästen. </t>
   </si>
   <si>
     <t>Obs! Arbetsboken kan vara skyddad med lösen 123</t>
@@ -2158,49 +2149,94 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2217,13 +2253,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,11 +2283,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2273,110 +2303,55 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2423,20 +2398,175 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2474,127 +2604,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2623,28 +2668,10 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2665,6 +2692,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2680,56 +2721,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Dezimal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2742,7 +2733,7 @@
     <cellStyle name="Tusental" xfId="1" builtinId="3"/>
     <cellStyle name="Tusental 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -2957,48 +2948,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3383,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3418,7 +3367,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="129" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="13.15" x14ac:dyDescent="0.4">
@@ -3428,7 +3377,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="129" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
@@ -3443,153 +3392,137 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="129" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A15" s="138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="138" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="129" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="129" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="138" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="138" t="s">
+    <row r="16" spans="1:1" s="138" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="138" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="129" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="129" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="127" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="127" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="129" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="127" customFormat="1" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="127" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="138" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A23" s="140"/>
-      <c r="B23" s="140" t="s">
+    <row r="22" spans="1:3" s="138" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="140"/>
+      <c r="B22" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C22" s="140" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="137" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="285" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="137" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B24" s="137" t="s">
         <v>125</v>
       </c>
       <c r="C24" s="285" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="137" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C25" s="285" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="137" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="285" t="s">
-        <v>131</v>
+        <v>147</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="137" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="137" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="137" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="137" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="137" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A31" s="138" t="s">
+    <row r="29" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="138" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="129" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="129" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="B32" s="129" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="129" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="129" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="B34" s="129" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="129" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="129" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="129" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3655,9 +3588,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="74"/>
-      <c r="C4" s="449"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="449"/>
+      <c r="C4" s="480"/>
+      <c r="D4" s="480"/>
+      <c r="E4" s="480"/>
       <c r="F4" s="103"/>
       <c r="H4" s="101"/>
       <c r="I4" s="100" t="s">
@@ -3672,10 +3605,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="86"/>
-      <c r="C5" s="448"/>
-      <c r="D5" s="448"/>
-      <c r="E5" s="448"/>
-      <c r="F5" s="448"/>
+      <c r="C5" s="479"/>
+      <c r="D5" s="479"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="479"/>
       <c r="H5" s="101"/>
       <c r="I5" s="100" t="s">
         <v>13</v>
@@ -3689,10 +3622,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="86"/>
-      <c r="C6" s="448"/>
-      <c r="D6" s="448"/>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
+      <c r="C6" s="479"/>
+      <c r="D6" s="479"/>
+      <c r="E6" s="479"/>
+      <c r="F6" s="479"/>
       <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3717,10 +3650,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="74"/>
-      <c r="C8" s="449"/>
-      <c r="D8" s="449"/>
-      <c r="E8" s="449"/>
-      <c r="F8" s="449"/>
+      <c r="C8" s="480"/>
+      <c r="D8" s="480"/>
+      <c r="E8" s="480"/>
+      <c r="F8" s="480"/>
       <c r="H8" s="93"/>
       <c r="I8" s="93"/>
       <c r="J8" s="93"/>
@@ -3732,10 +3665,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="448"/>
-      <c r="D9" s="448"/>
-      <c r="E9" s="448"/>
-      <c r="F9" s="448"/>
+      <c r="C9" s="479"/>
+      <c r="D9" s="479"/>
+      <c r="E9" s="479"/>
+      <c r="F9" s="479"/>
       <c r="H9" s="93"/>
       <c r="I9" s="93"/>
       <c r="J9" s="93"/>
@@ -3747,10 +3680,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="86"/>
-      <c r="C10" s="448"/>
-      <c r="D10" s="448"/>
-      <c r="E10" s="448"/>
-      <c r="F10" s="448"/>
+      <c r="C10" s="479"/>
+      <c r="D10" s="479"/>
+      <c r="E10" s="479"/>
+      <c r="F10" s="479"/>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
@@ -3924,96 +3857,96 @@
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="450" t="s">
+      <c r="G23" s="470" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="451"/>
-      <c r="I23" s="452"/>
-      <c r="J23" s="320" t="s">
+      <c r="H23" s="471"/>
+      <c r="I23" s="472"/>
+      <c r="J23" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="321"/>
-      <c r="L23" s="322"/>
+      <c r="K23" s="337"/>
+      <c r="L23" s="338"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="323" t="s">
+      <c r="A24" s="320" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="326" t="s">
+      <c r="B24" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="326" t="s">
+      <c r="C24" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="326"/>
-      <c r="E24" s="328" t="s">
+      <c r="D24" s="340"/>
+      <c r="E24" s="342" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="453"/>
-      <c r="G24" s="454"/>
-      <c r="H24" s="455"/>
-      <c r="I24" s="456"/>
-      <c r="J24" s="332">
+      <c r="F24" s="473"/>
+      <c r="G24" s="474"/>
+      <c r="H24" s="475"/>
+      <c r="I24" s="476"/>
+      <c r="J24" s="346">
         <v>0.2</v>
       </c>
-      <c r="K24" s="335"/>
-      <c r="L24" s="338">
+      <c r="K24" s="489"/>
+      <c r="L24" s="352">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="324"/>
-      <c r="B25" s="326"/>
-      <c r="C25" s="326" t="s">
+      <c r="A25" s="339"/>
+      <c r="B25" s="340"/>
+      <c r="C25" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="326"/>
-      <c r="E25" s="339" t="s">
+      <c r="D25" s="340"/>
+      <c r="E25" s="353" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="340"/>
-      <c r="G25" s="459"/>
-      <c r="H25" s="460"/>
-      <c r="I25" s="461"/>
-      <c r="J25" s="333"/>
-      <c r="K25" s="335"/>
-      <c r="L25" s="457"/>
+      <c r="F25" s="354"/>
+      <c r="G25" s="467"/>
+      <c r="H25" s="468"/>
+      <c r="I25" s="469"/>
+      <c r="J25" s="347"/>
+      <c r="K25" s="489"/>
+      <c r="L25" s="477"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="325"/>
-      <c r="B26" s="327"/>
-      <c r="C26" s="327" t="s">
+      <c r="A26" s="321"/>
+      <c r="B26" s="341"/>
+      <c r="C26" s="341" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="327"/>
-      <c r="E26" s="339" t="s">
+      <c r="D26" s="341"/>
+      <c r="E26" s="353" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="340"/>
-      <c r="G26" s="459"/>
-      <c r="H26" s="460"/>
-      <c r="I26" s="461"/>
-      <c r="J26" s="334"/>
-      <c r="K26" s="336"/>
-      <c r="L26" s="458"/>
+      <c r="F26" s="354"/>
+      <c r="G26" s="467"/>
+      <c r="H26" s="468"/>
+      <c r="I26" s="469"/>
+      <c r="J26" s="348"/>
+      <c r="K26" s="490"/>
+      <c r="L26" s="478"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="323" t="s">
+      <c r="A27" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="348" t="s">
+      <c r="B27" s="322" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="349"/>
-      <c r="D27" s="350"/>
-      <c r="E27" s="351" t="s">
+      <c r="C27" s="323"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="352"/>
-      <c r="G27" s="462"/>
-      <c r="H27" s="463"/>
-      <c r="I27" s="464"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="464"/>
+      <c r="H27" s="465"/>
+      <c r="I27" s="466"/>
       <c r="J27" s="65">
         <v>0.4</v>
       </c>
@@ -4025,19 +3958,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="325"/>
-      <c r="B28" s="353" t="s">
+      <c r="A28" s="321"/>
+      <c r="B28" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="354"/>
-      <c r="D28" s="355"/>
-      <c r="E28" s="356" t="s">
+      <c r="C28" s="330"/>
+      <c r="D28" s="331"/>
+      <c r="E28" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="357"/>
-      <c r="G28" s="459"/>
-      <c r="H28" s="460"/>
-      <c r="I28" s="461"/>
+      <c r="F28" s="333"/>
+      <c r="G28" s="467"/>
+      <c r="H28" s="468"/>
+      <c r="I28" s="469"/>
       <c r="J28" s="65">
         <v>0.4</v>
       </c>
@@ -4051,16 +3984,16 @@
       <c r="A29" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="345" t="s">
+      <c r="B29" s="317" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="346"/>
-      <c r="D29" s="346"/>
-      <c r="E29" s="346"/>
-      <c r="F29" s="346"/>
-      <c r="G29" s="346"/>
-      <c r="H29" s="346"/>
-      <c r="I29" s="347"/>
+      <c r="C29" s="318"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="319"/>
       <c r="J29" s="66"/>
       <c r="K29" s="61">
         <f>J29</f>
@@ -4177,6 +4110,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -4190,23 +4140,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
@@ -4285,9 +4218,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="110"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
       <c r="F4" s="117"/>
       <c r="H4" s="78" t="s">
         <v>11</v>
@@ -4302,10 +4235,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="114"/>
-      <c r="C5" s="465"/>
-      <c r="D5" s="465"/>
-      <c r="E5" s="465"/>
-      <c r="F5" s="465"/>
+      <c r="C5" s="487"/>
+      <c r="D5" s="487"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
       <c r="H5" s="78" t="s">
         <v>13</v>
       </c>
@@ -4319,10 +4252,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="114"/>
-      <c r="C6" s="465"/>
-      <c r="D6" s="465"/>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
+      <c r="C6" s="487"/>
+      <c r="D6" s="487"/>
+      <c r="E6" s="487"/>
+      <c r="F6" s="487"/>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
@@ -4351,10 +4284,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="110"/>
-      <c r="C8" s="466"/>
-      <c r="D8" s="466"/>
-      <c r="E8" s="466"/>
-      <c r="F8" s="466"/>
+      <c r="C8" s="488"/>
+      <c r="D8" s="488"/>
+      <c r="E8" s="488"/>
+      <c r="F8" s="488"/>
       <c r="H8" s="116"/>
       <c r="I8" s="116"/>
       <c r="J8" s="116"/>
@@ -4366,10 +4299,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="114"/>
-      <c r="C9" s="465"/>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
-      <c r="F9" s="465"/>
+      <c r="C9" s="487"/>
+      <c r="D9" s="487"/>
+      <c r="E9" s="487"/>
+      <c r="F9" s="487"/>
       <c r="H9" s="116"/>
       <c r="I9" s="116"/>
       <c r="J9" s="116"/>
@@ -4381,10 +4314,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="114"/>
-      <c r="C10" s="465"/>
-      <c r="D10" s="465"/>
-      <c r="E10" s="465"/>
-      <c r="F10" s="465"/>
+      <c r="C10" s="487"/>
+      <c r="D10" s="487"/>
+      <c r="E10" s="487"/>
+      <c r="F10" s="487"/>
       <c r="H10" s="116"/>
       <c r="I10" s="116"/>
       <c r="J10" s="116"/>
@@ -4421,97 +4354,97 @@
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="318" t="s">
+      <c r="G13" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="319"/>
-      <c r="I13" s="320" t="s">
+      <c r="H13" s="335"/>
+      <c r="I13" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="321"/>
-      <c r="K13" s="322"/>
+      <c r="J13" s="337"/>
+      <c r="K13" s="338"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="358" t="s">
+      <c r="A14" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="361" t="s">
+      <c r="B14" s="401" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="361" t="s">
+      <c r="C14" s="401" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="361"/>
-      <c r="E14" s="363" t="s">
+      <c r="D14" s="401"/>
+      <c r="E14" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="364"/>
-      <c r="G14" s="330"/>
-      <c r="H14" s="331"/>
-      <c r="I14" s="332">
+      <c r="F14" s="403"/>
+      <c r="G14" s="344"/>
+      <c r="H14" s="345"/>
+      <c r="I14" s="346">
         <v>0.2</v>
       </c>
-      <c r="J14" s="485">
+      <c r="J14" s="349">
         <v>0</v>
       </c>
-      <c r="K14" s="337">
+      <c r="K14" s="351">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="359"/>
-      <c r="B15" s="361"/>
-      <c r="C15" s="361" t="s">
+      <c r="A15" s="400"/>
+      <c r="B15" s="401"/>
+      <c r="C15" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="361"/>
-      <c r="E15" s="365" t="s">
+      <c r="D15" s="401"/>
+      <c r="E15" s="404" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="366"/>
-      <c r="G15" s="341"/>
-      <c r="H15" s="342"/>
-      <c r="I15" s="333"/>
-      <c r="J15" s="485"/>
-      <c r="K15" s="337"/>
+      <c r="F15" s="405"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="347"/>
+      <c r="J15" s="349"/>
+      <c r="K15" s="351"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="360"/>
-      <c r="B16" s="362"/>
-      <c r="C16" s="362" t="s">
+      <c r="A16" s="389"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="362"/>
-      <c r="E16" s="365" t="s">
+      <c r="D16" s="402"/>
+      <c r="E16" s="404" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="366"/>
-      <c r="G16" s="343"/>
-      <c r="H16" s="344"/>
-      <c r="I16" s="334"/>
-      <c r="J16" s="486"/>
-      <c r="K16" s="338"/>
+      <c r="F16" s="405"/>
+      <c r="G16" s="355"/>
+      <c r="H16" s="356"/>
+      <c r="I16" s="348"/>
+      <c r="J16" s="350"/>
+      <c r="K16" s="352"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358" t="s">
+      <c r="A17" s="388" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="367" t="s">
+      <c r="B17" s="390" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="368"/>
-      <c r="D17" s="369"/>
-      <c r="E17" s="363" t="s">
+      <c r="C17" s="391"/>
+      <c r="D17" s="392"/>
+      <c r="E17" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="370"/>
-      <c r="G17" s="341"/>
-      <c r="H17" s="342"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="327"/>
+      <c r="H17" s="328"/>
       <c r="I17" s="49">
         <v>0.4</v>
       </c>
-      <c r="J17" s="487">
+      <c r="J17" s="305">
         <v>0</v>
       </c>
       <c r="K17" s="143">
@@ -4521,22 +4454,22 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="360"/>
-      <c r="B18" s="371" t="s">
+      <c r="A18" s="389"/>
+      <c r="B18" s="395" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="372"/>
-      <c r="D18" s="373"/>
-      <c r="E18" s="374" t="s">
+      <c r="C18" s="396"/>
+      <c r="D18" s="397"/>
+      <c r="E18" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="375"/>
-      <c r="G18" s="341"/>
-      <c r="H18" s="342"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="327"/>
+      <c r="H18" s="328"/>
       <c r="I18" s="49">
         <v>0.4</v>
       </c>
-      <c r="J18" s="487">
+      <c r="J18" s="305">
         <v>0</v>
       </c>
       <c r="K18" s="143">
@@ -4548,18 +4481,18 @@
       <c r="A19" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="345" t="s">
+      <c r="B19" s="317" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="346"/>
-      <c r="D19" s="346"/>
-      <c r="E19" s="346"/>
-      <c r="F19" s="346"/>
-      <c r="G19" s="346"/>
-      <c r="H19" s="346"/>
-      <c r="I19" s="347"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="319"/>
       <c r="J19" s="50"/>
-      <c r="K19" s="488"/>
+      <c r="K19" s="306"/>
     </row>
     <row r="20" spans="1:12" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="52"/>
@@ -4622,19 +4555,19 @@
       <c r="A23" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="499">
+      <c r="B23" s="316">
         <v>0</v>
       </c>
-      <c r="C23" s="499">
+      <c r="C23" s="316">
         <v>0</v>
       </c>
-      <c r="D23" s="499">
+      <c r="D23" s="316">
         <v>0</v>
       </c>
-      <c r="E23" s="499">
+      <c r="E23" s="316">
         <v>0</v>
       </c>
-      <c r="F23" s="499">
+      <c r="F23" s="316">
         <v>0</v>
       </c>
       <c r="G23" s="133">
@@ -4677,88 +4610,88 @@
       <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="379" t="s">
+      <c r="A26" s="376" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="380"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="380"/>
-      <c r="F26" s="380"/>
-      <c r="G26" s="380"/>
-      <c r="H26" s="380"/>
-      <c r="I26" s="380"/>
-      <c r="J26" s="380"/>
-      <c r="K26" s="381"/>
+      <c r="B26" s="377"/>
+      <c r="C26" s="377"/>
+      <c r="D26" s="377"/>
+      <c r="E26" s="377"/>
+      <c r="F26" s="377"/>
+      <c r="G26" s="377"/>
+      <c r="H26" s="377"/>
+      <c r="I26" s="377"/>
+      <c r="J26" s="377"/>
+      <c r="K26" s="378"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="382"/>
-      <c r="B27" s="383"/>
-      <c r="C27" s="383"/>
-      <c r="D27" s="383"/>
-      <c r="E27" s="383"/>
-      <c r="F27" s="383"/>
-      <c r="G27" s="383"/>
-      <c r="H27" s="383"/>
-      <c r="I27" s="383"/>
-      <c r="J27" s="383"/>
-      <c r="K27" s="384"/>
+      <c r="A27" s="379"/>
+      <c r="B27" s="380"/>
+      <c r="C27" s="380"/>
+      <c r="D27" s="380"/>
+      <c r="E27" s="380"/>
+      <c r="F27" s="380"/>
+      <c r="G27" s="380"/>
+      <c r="H27" s="380"/>
+      <c r="I27" s="380"/>
+      <c r="J27" s="380"/>
+      <c r="K27" s="381"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="382"/>
-      <c r="B28" s="383"/>
-      <c r="C28" s="383"/>
-      <c r="D28" s="383"/>
-      <c r="E28" s="383"/>
-      <c r="F28" s="383"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="383"/>
-      <c r="I28" s="383"/>
-      <c r="J28" s="383"/>
-      <c r="K28" s="384"/>
+      <c r="A28" s="379"/>
+      <c r="B28" s="380"/>
+      <c r="C28" s="380"/>
+      <c r="D28" s="380"/>
+      <c r="E28" s="380"/>
+      <c r="F28" s="380"/>
+      <c r="G28" s="380"/>
+      <c r="H28" s="380"/>
+      <c r="I28" s="380"/>
+      <c r="J28" s="380"/>
+      <c r="K28" s="381"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="382"/>
-      <c r="B29" s="383"/>
-      <c r="C29" s="383"/>
-      <c r="D29" s="383"/>
-      <c r="E29" s="383"/>
-      <c r="F29" s="383"/>
-      <c r="G29" s="383"/>
-      <c r="H29" s="383"/>
-      <c r="I29" s="383"/>
-      <c r="J29" s="383"/>
-      <c r="K29" s="384"/>
+      <c r="A29" s="379"/>
+      <c r="B29" s="380"/>
+      <c r="C29" s="380"/>
+      <c r="D29" s="380"/>
+      <c r="E29" s="380"/>
+      <c r="F29" s="380"/>
+      <c r="G29" s="380"/>
+      <c r="H29" s="380"/>
+      <c r="I29" s="380"/>
+      <c r="J29" s="380"/>
+      <c r="K29" s="381"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="385"/>
-      <c r="B30" s="386"/>
-      <c r="C30" s="386"/>
-      <c r="D30" s="386"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="386"/>
-      <c r="G30" s="386"/>
-      <c r="H30" s="386"/>
-      <c r="I30" s="386"/>
-      <c r="J30" s="386"/>
-      <c r="K30" s="387"/>
+      <c r="A30" s="382"/>
+      <c r="B30" s="383"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="383"/>
+      <c r="E30" s="383"/>
+      <c r="F30" s="383"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="383"/>
+      <c r="I30" s="383"/>
+      <c r="J30" s="383"/>
+      <c r="K30" s="384"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="470" t="s">
+      <c r="A32" s="484" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="470"/>
-      <c r="C32" s="470"/>
-      <c r="D32" s="470"/>
-      <c r="E32" s="470"/>
-      <c r="F32" s="470"/>
-      <c r="G32" s="470"/>
-      <c r="H32" s="471">
+      <c r="B32" s="484"/>
+      <c r="C32" s="484"/>
+      <c r="D32" s="484"/>
+      <c r="E32" s="484"/>
+      <c r="F32" s="484"/>
+      <c r="G32" s="484"/>
+      <c r="H32" s="485">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="471"/>
+      <c r="I32" s="485"/>
       <c r="J32" s="150" t="s">
         <v>46</v>
       </c>
@@ -4768,20 +4701,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="470" t="s">
+      <c r="A33" s="484" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="470"/>
-      <c r="C33" s="470"/>
-      <c r="D33" s="470"/>
-      <c r="E33" s="470"/>
-      <c r="F33" s="470"/>
-      <c r="G33" s="470"/>
-      <c r="H33" s="389">
+      <c r="B33" s="484"/>
+      <c r="C33" s="484"/>
+      <c r="D33" s="484"/>
+      <c r="E33" s="484"/>
+      <c r="F33" s="484"/>
+      <c r="G33" s="484"/>
+      <c r="H33" s="386">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="472"/>
+      <c r="I33" s="486"/>
       <c r="J33" s="151" t="s">
         <v>62</v>
       </c>
@@ -4813,14 +4746,14 @@
       <c r="B35" s="152"/>
       <c r="C35" s="152"/>
       <c r="D35" s="152"/>
-      <c r="E35" s="467" t="s">
+      <c r="E35" s="481" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="468"/>
-      <c r="G35" s="468"/>
-      <c r="H35" s="468"/>
-      <c r="I35" s="468"/>
-      <c r="J35" s="469"/>
+      <c r="F35" s="482"/>
+      <c r="G35" s="482"/>
+      <c r="H35" s="482"/>
+      <c r="I35" s="482"/>
+      <c r="J35" s="483"/>
       <c r="K35" s="58">
         <f>K34/4</f>
         <v>0</v>
@@ -4911,6 +4844,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -4927,26 +4880,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -5011,10 +4944,10 @@
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
-      <c r="E1" s="473" t="s">
+      <c r="E1" s="491" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="474"/>
+      <c r="F1" s="492"/>
       <c r="G1" s="235"/>
       <c r="H1" s="166"/>
       <c r="I1" s="198"/>
@@ -5040,10 +4973,10 @@
       <c r="B2" s="166"/>
       <c r="C2" s="166"/>
       <c r="D2" s="166"/>
-      <c r="E2" s="473" t="s">
+      <c r="E2" s="491" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="474"/>
+      <c r="F2" s="492"/>
       <c r="G2" s="235"/>
       <c r="H2" s="166"/>
       <c r="I2" s="198"/>
@@ -5069,10 +5002,10 @@
       <c r="B3" s="168"/>
       <c r="C3" s="168"/>
       <c r="D3" s="166"/>
-      <c r="E3" s="473" t="s">
+      <c r="E3" s="491" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="474"/>
+      <c r="F3" s="492"/>
       <c r="G3" s="235"/>
       <c r="H3" s="166"/>
       <c r="I3" s="166"/>
@@ -5098,10 +5031,10 @@
       <c r="B4" s="195"/>
       <c r="C4" s="195"/>
       <c r="D4" s="166"/>
-      <c r="E4" s="473" t="s">
+      <c r="E4" s="491" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="474"/>
+      <c r="F4" s="492"/>
       <c r="G4" s="197"/>
       <c r="H4" s="166"/>
       <c r="I4" s="169"/>
@@ -31904,18 +31837,18 @@
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
-      <c r="E1" s="473" t="s">
+      <c r="E1" s="491" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="474"/>
+      <c r="F1" s="492"/>
       <c r="G1" s="235"/>
       <c r="H1" s="198"/>
       <c r="I1" s="198"/>
       <c r="J1" s="166"/>
       <c r="K1" s="166"/>
       <c r="L1" s="166"/>
-      <c r="M1" s="475"/>
-      <c r="N1" s="476"/>
+      <c r="M1" s="493"/>
+      <c r="N1" s="494"/>
       <c r="O1" s="166"/>
       <c r="P1" s="166"/>
       <c r="Q1" s="166"/>
@@ -31934,18 +31867,18 @@
       <c r="B2" s="166"/>
       <c r="C2" s="166"/>
       <c r="D2" s="166"/>
-      <c r="E2" s="473" t="s">
+      <c r="E2" s="491" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="474"/>
+      <c r="F2" s="492"/>
       <c r="G2" s="235"/>
       <c r="H2" s="198"/>
       <c r="I2" s="198"/>
       <c r="J2" s="166"/>
       <c r="K2" s="166"/>
       <c r="L2" s="166"/>
-      <c r="M2" s="475"/>
-      <c r="N2" s="476"/>
+      <c r="M2" s="493"/>
+      <c r="N2" s="494"/>
       <c r="O2" s="166"/>
       <c r="P2" s="166"/>
       <c r="Q2" s="166"/>
@@ -31964,18 +31897,18 @@
       <c r="B3" s="168"/>
       <c r="C3" s="168"/>
       <c r="D3" s="166"/>
-      <c r="E3" s="473" t="s">
+      <c r="E3" s="491" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="474"/>
+      <c r="F3" s="492"/>
       <c r="G3" s="235"/>
       <c r="H3" s="166"/>
       <c r="I3" s="166"/>
       <c r="J3" s="166"/>
       <c r="K3" s="166"/>
       <c r="L3" s="166"/>
-      <c r="M3" s="475"/>
-      <c r="N3" s="476"/>
+      <c r="M3" s="493"/>
+      <c r="N3" s="494"/>
       <c r="O3" s="166"/>
       <c r="P3" s="166"/>
       <c r="Q3" s="166"/>
@@ -31994,15 +31927,15 @@
       <c r="B4" s="195"/>
       <c r="C4" s="195"/>
       <c r="D4" s="166"/>
-      <c r="E4" s="473" t="s">
+      <c r="E4" s="491" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="474"/>
+      <c r="F4" s="492"/>
       <c r="G4" s="197"/>
       <c r="H4" s="169"/>
       <c r="I4" s="169"/>
-      <c r="M4" s="475"/>
-      <c r="N4" s="476"/>
+      <c r="M4" s="493"/>
+      <c r="N4" s="494"/>
       <c r="O4" s="166"/>
       <c r="P4" s="166"/>
       <c r="Q4" s="166"/>
@@ -57852,10 +57785,10 @@
       <c r="A1" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="479" t="s">
+      <c r="E1" s="497" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="480"/>
+      <c r="F1" s="498"/>
       <c r="G1" s="236"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -57864,10 +57797,10 @@
       </c>
       <c r="B2" s="211"/>
       <c r="C2" s="211"/>
-      <c r="E2" s="479" t="s">
+      <c r="E2" s="497" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="480"/>
+      <c r="F2" s="498"/>
       <c r="G2" s="236"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -57876,10 +57809,10 @@
       </c>
       <c r="B3" s="214"/>
       <c r="C3" s="214"/>
-      <c r="E3" s="479" t="s">
+      <c r="E3" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="480"/>
+      <c r="F3" s="498"/>
       <c r="G3" s="236"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -57888,10 +57821,10 @@
       </c>
       <c r="B4" s="214"/>
       <c r="C4" s="214"/>
-      <c r="E4" s="479" t="s">
+      <c r="E4" s="497" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="480"/>
+      <c r="F4" s="498"/>
       <c r="G4" s="209"/>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -57900,10 +57833,10 @@
       </c>
       <c r="B5" s="214"/>
       <c r="C5" s="214"/>
-      <c r="E5" s="479" t="s">
+      <c r="E5" s="497" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="480"/>
+      <c r="F5" s="498"/>
       <c r="G5" s="236"/>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -57926,11 +57859,11 @@
       <c r="A9" s="215" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="481" t="s">
+      <c r="B9" s="499" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="478"/>
-      <c r="D9" s="478"/>
+      <c r="C9" s="496"/>
+      <c r="D9" s="496"/>
       <c r="E9" s="216" t="s">
         <v>113</v>
       </c>
@@ -58006,9 +57939,9 @@
       <c r="A16" s="215" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="477"/>
-      <c r="C16" s="478"/>
-      <c r="D16" s="478"/>
+      <c r="B16" s="495"/>
+      <c r="C16" s="496"/>
+      <c r="D16" s="496"/>
     </row>
     <row r="17" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="220">
@@ -58218,8 +58151,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
       <c r="E4" s="238"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -58234,9 +58167,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -58258,83 +58191,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
       <c r="G7" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
+      <c r="H7" s="370"/>
+      <c r="I7" s="371"/>
+      <c r="J7" s="371"/>
+      <c r="K7" s="371"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
       <c r="G8" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="307"/>
-      <c r="I8" s="308"/>
-      <c r="J8" s="308"/>
-      <c r="K8" s="308"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
       <c r="G9" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="307"/>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="362"/>
+      <c r="K9" s="362"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
       <c r="G10" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="307"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="308"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="307"/>
-      <c r="I11" s="308"/>
-      <c r="J11" s="308"/>
-      <c r="K11" s="308"/>
+      <c r="H11" s="361"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="307"/>
-      <c r="I12" s="308"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="308"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="362"/>
+      <c r="J12" s="362"/>
+      <c r="K12" s="362"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -58364,102 +58297,102 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="312" t="s">
+      <c r="A15" s="363" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="313"/>
-      <c r="C15" s="314"/>
-      <c r="D15" s="482"/>
-      <c r="E15" s="482"/>
-      <c r="F15" s="482"/>
-      <c r="G15" s="482"/>
-      <c r="H15" s="482"/>
-      <c r="I15" s="482"/>
+      <c r="B15" s="364"/>
+      <c r="C15" s="365"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
       <c r="J15" s="12">
         <f t="shared" ref="J15:J20" si="0">SUM(D15:I15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="309" t="s">
+      <c r="A16" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="310"/>
-      <c r="C16" s="311"/>
-      <c r="D16" s="482"/>
-      <c r="E16" s="482"/>
-      <c r="F16" s="482"/>
-      <c r="G16" s="482"/>
-      <c r="H16" s="482"/>
-      <c r="I16" s="482"/>
+      <c r="B16" s="358"/>
+      <c r="C16" s="359"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="309" t="s">
+      <c r="A17" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="310"/>
-      <c r="C17" s="311"/>
-      <c r="D17" s="482"/>
-      <c r="E17" s="482"/>
-      <c r="F17" s="482"/>
-      <c r="G17" s="482"/>
-      <c r="H17" s="482"/>
-      <c r="I17" s="482"/>
+      <c r="B17" s="358"/>
+      <c r="C17" s="359"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="315" t="s">
+      <c r="A18" s="366" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="316"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="482"/>
-      <c r="E18" s="482"/>
-      <c r="F18" s="482"/>
-      <c r="G18" s="482"/>
-      <c r="H18" s="482"/>
-      <c r="I18" s="482"/>
+      <c r="B18" s="367"/>
+      <c r="C18" s="368"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="309" t="s">
+      <c r="A19" s="357" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="310"/>
-      <c r="C19" s="311"/>
-      <c r="D19" s="482"/>
-      <c r="E19" s="482"/>
-      <c r="F19" s="482"/>
-      <c r="G19" s="482"/>
-      <c r="H19" s="482"/>
-      <c r="I19" s="482"/>
+      <c r="B19" s="358"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="309" t="s">
+      <c r="A20" s="357" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="310"/>
-      <c r="C20" s="311"/>
-      <c r="D20" s="482"/>
-      <c r="E20" s="482"/>
-      <c r="F20" s="482"/>
-      <c r="G20" s="482"/>
-      <c r="H20" s="482"/>
-      <c r="I20" s="482"/>
+      <c r="B20" s="358"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="302"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -58488,10 +58421,10 @@
     <row r="23" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15"/>
       <c r="E23" s="16"/>
-      <c r="G23" s="484" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="483"/>
+      <c r="G23" s="304" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="303"/>
       <c r="I23" s="1" t="s">
         <v>44</v>
       </c>
@@ -58542,117 +58475,117 @@
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="318" t="s">
+      <c r="G28" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="319"/>
-      <c r="I28" s="320" t="s">
+      <c r="H28" s="335"/>
+      <c r="I28" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="321"/>
-      <c r="K28" s="322"/>
+      <c r="J28" s="337"/>
+      <c r="K28" s="338"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="323" t="s">
+      <c r="A29" s="320" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="326" t="s">
+      <c r="B29" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="326" t="s">
+      <c r="C29" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="328" t="s">
+      <c r="D29" s="340"/>
+      <c r="E29" s="342" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="330"/>
-      <c r="H29" s="331"/>
-      <c r="I29" s="332">
+      <c r="F29" s="343"/>
+      <c r="G29" s="344"/>
+      <c r="H29" s="345"/>
+      <c r="I29" s="346">
         <v>0.2</v>
       </c>
-      <c r="J29" s="485"/>
-      <c r="K29" s="337">
+      <c r="J29" s="349"/>
+      <c r="K29" s="351">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="324"/>
-      <c r="B30" s="326"/>
-      <c r="C30" s="326" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="340"/>
+      <c r="C30" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="326"/>
-      <c r="E30" s="339" t="s">
+      <c r="D30" s="340"/>
+      <c r="E30" s="353" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="340"/>
-      <c r="G30" s="341"/>
-      <c r="H30" s="342"/>
-      <c r="I30" s="333"/>
-      <c r="J30" s="485"/>
-      <c r="K30" s="337"/>
+      <c r="F30" s="354"/>
+      <c r="G30" s="327"/>
+      <c r="H30" s="328"/>
+      <c r="I30" s="347"/>
+      <c r="J30" s="349"/>
+      <c r="K30" s="351"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="325"/>
-      <c r="B31" s="327"/>
-      <c r="C31" s="327" t="s">
+      <c r="A31" s="321"/>
+      <c r="B31" s="341"/>
+      <c r="C31" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="327"/>
-      <c r="E31" s="339" t="s">
+      <c r="D31" s="341"/>
+      <c r="E31" s="353" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="340"/>
-      <c r="G31" s="343"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="334"/>
-      <c r="J31" s="486"/>
-      <c r="K31" s="338"/>
+      <c r="F31" s="354"/>
+      <c r="G31" s="355"/>
+      <c r="H31" s="356"/>
+      <c r="I31" s="348"/>
+      <c r="J31" s="350"/>
+      <c r="K31" s="352"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="323" t="s">
+      <c r="A32" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="348" t="s">
+      <c r="B32" s="322" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="349"/>
-      <c r="D32" s="350"/>
-      <c r="E32" s="351" t="s">
+      <c r="C32" s="323"/>
+      <c r="D32" s="324"/>
+      <c r="E32" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="352"/>
-      <c r="G32" s="341"/>
-      <c r="H32" s="342"/>
+      <c r="F32" s="326"/>
+      <c r="G32" s="327"/>
+      <c r="H32" s="328"/>
       <c r="I32" s="241">
         <v>0.4</v>
       </c>
-      <c r="J32" s="487"/>
+      <c r="J32" s="305"/>
       <c r="K32" s="244">
         <f>J32*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="325"/>
-      <c r="B33" s="353" t="s">
+      <c r="A33" s="321"/>
+      <c r="B33" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="354"/>
-      <c r="D33" s="355"/>
-      <c r="E33" s="356" t="s">
+      <c r="C33" s="330"/>
+      <c r="D33" s="331"/>
+      <c r="E33" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="357"/>
-      <c r="G33" s="341"/>
-      <c r="H33" s="342"/>
+      <c r="F33" s="333"/>
+      <c r="G33" s="327"/>
+      <c r="H33" s="328"/>
       <c r="I33" s="241">
         <v>0.4</v>
       </c>
-      <c r="J33" s="487"/>
+      <c r="J33" s="305"/>
       <c r="K33" s="244">
         <f>J33*0.4</f>
         <v>0</v>
@@ -58662,16 +58595,16 @@
       <c r="A34" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="345" t="s">
+      <c r="B34" s="317" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="346"/>
-      <c r="D34" s="346"/>
-      <c r="E34" s="346"/>
-      <c r="F34" s="346"/>
-      <c r="G34" s="346"/>
-      <c r="H34" s="346"/>
-      <c r="I34" s="347"/>
+      <c r="C34" s="318"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="318"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="318"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="319"/>
       <c r="J34" s="243"/>
       <c r="K34" s="247">
         <f>J34</f>
@@ -58776,14 +58709,24 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -58800,24 +58743,14 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
@@ -58865,7 +58798,7 @@
     <row r="1" spans="1:11" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
@@ -58892,8 +58825,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
       <c r="E4" s="238"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -58908,9 +58841,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -58932,83 +58865,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
       <c r="G7" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
+      <c r="H7" s="370"/>
+      <c r="I7" s="371"/>
+      <c r="J7" s="371"/>
+      <c r="K7" s="371"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
       <c r="G8" s="237" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="307"/>
-      <c r="I8" s="308"/>
-      <c r="J8" s="308"/>
-      <c r="K8" s="308"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
       <c r="G9" s="237" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="307"/>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="362"/>
+      <c r="K9" s="362"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
       <c r="G10" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="307"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="308"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="307"/>
-      <c r="I11" s="308"/>
-      <c r="J11" s="308"/>
-      <c r="K11" s="308"/>
+      <c r="H11" s="361"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="307"/>
-      <c r="I12" s="308"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="308"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="362"/>
+      <c r="J12" s="362"/>
+      <c r="K12" s="362"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -59023,97 +58956,97 @@
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
-      <c r="G14" s="318" t="s">
+      <c r="G14" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="319"/>
-      <c r="I14" s="320" t="s">
+      <c r="H14" s="335"/>
+      <c r="I14" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="321"/>
-      <c r="K14" s="322"/>
+      <c r="J14" s="337"/>
+      <c r="K14" s="338"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="358" t="s">
+      <c r="A15" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="361" t="s">
+      <c r="B15" s="401" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="361" t="s">
+      <c r="C15" s="401" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="361"/>
-      <c r="E15" s="363" t="s">
+      <c r="D15" s="401"/>
+      <c r="E15" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="364"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="331"/>
-      <c r="I15" s="332">
+      <c r="F15" s="403"/>
+      <c r="G15" s="344"/>
+      <c r="H15" s="345"/>
+      <c r="I15" s="346">
         <v>0.2</v>
       </c>
-      <c r="J15" s="485">
+      <c r="J15" s="349">
         <v>0</v>
       </c>
-      <c r="K15" s="337">
+      <c r="K15" s="351">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="359"/>
-      <c r="B16" s="361"/>
-      <c r="C16" s="361" t="s">
+      <c r="A16" s="400"/>
+      <c r="B16" s="401"/>
+      <c r="C16" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="361"/>
-      <c r="E16" s="365" t="s">
+      <c r="D16" s="401"/>
+      <c r="E16" s="404" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="366"/>
-      <c r="G16" s="341"/>
-      <c r="H16" s="342"/>
-      <c r="I16" s="333"/>
-      <c r="J16" s="485"/>
-      <c r="K16" s="337"/>
+      <c r="F16" s="405"/>
+      <c r="G16" s="327"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="347"/>
+      <c r="J16" s="349"/>
+      <c r="K16" s="351"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="360"/>
-      <c r="B17" s="362"/>
-      <c r="C17" s="362" t="s">
+      <c r="A17" s="389"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="362"/>
-      <c r="E17" s="365" t="s">
+      <c r="D17" s="402"/>
+      <c r="E17" s="404" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="366"/>
-      <c r="G17" s="343"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="334"/>
-      <c r="J17" s="486"/>
-      <c r="K17" s="338"/>
+      <c r="F17" s="405"/>
+      <c r="G17" s="355"/>
+      <c r="H17" s="356"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="350"/>
+      <c r="K17" s="352"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="358" t="s">
+      <c r="A18" s="388" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="367" t="s">
+      <c r="B18" s="390" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="368"/>
-      <c r="D18" s="369"/>
-      <c r="E18" s="363" t="s">
+      <c r="C18" s="391"/>
+      <c r="D18" s="392"/>
+      <c r="E18" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="370"/>
-      <c r="G18" s="341"/>
-      <c r="H18" s="342"/>
+      <c r="F18" s="394"/>
+      <c r="G18" s="327"/>
+      <c r="H18" s="328"/>
       <c r="I18" s="241">
         <v>0.4</v>
       </c>
-      <c r="J18" s="487">
+      <c r="J18" s="305">
         <v>0</v>
       </c>
       <c r="K18" s="244">
@@ -59123,22 +59056,22 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="360"/>
-      <c r="B19" s="371" t="s">
+      <c r="A19" s="389"/>
+      <c r="B19" s="395" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="372"/>
-      <c r="D19" s="373"/>
-      <c r="E19" s="374" t="s">
+      <c r="C19" s="396"/>
+      <c r="D19" s="397"/>
+      <c r="E19" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="375"/>
-      <c r="G19" s="341"/>
-      <c r="H19" s="342"/>
+      <c r="F19" s="399"/>
+      <c r="G19" s="327"/>
+      <c r="H19" s="328"/>
       <c r="I19" s="241">
         <v>0.4</v>
       </c>
-      <c r="J19" s="487">
+      <c r="J19" s="305">
         <v>0</v>
       </c>
       <c r="K19" s="244">
@@ -59150,18 +59083,18 @@
       <c r="A20" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="345" t="s">
+      <c r="B20" s="317" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="346"/>
-      <c r="D20" s="346"/>
-      <c r="E20" s="346"/>
-      <c r="F20" s="346"/>
-      <c r="G20" s="346"/>
-      <c r="H20" s="346"/>
-      <c r="I20" s="347"/>
+      <c r="C20" s="318"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="318"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="318"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="319"/>
       <c r="J20" s="242"/>
-      <c r="K20" s="489">
+      <c r="K20" s="307">
         <v>0</v>
       </c>
     </row>
@@ -59228,12 +59161,12 @@
       <c r="A24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="490"/>
-      <c r="C24" s="491"/>
-      <c r="D24" s="491"/>
-      <c r="E24" s="491"/>
-      <c r="F24" s="491"/>
-      <c r="G24" s="492"/>
+      <c r="B24" s="308"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="310"/>
       <c r="H24" s="1"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -59243,12 +59176,12 @@
       <c r="A25" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="490"/>
-      <c r="C25" s="491"/>
-      <c r="D25" s="491"/>
-      <c r="E25" s="491"/>
-      <c r="F25" s="491"/>
-      <c r="G25" s="492"/>
+      <c r="B25" s="308"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="309"/>
+      <c r="E25" s="309"/>
+      <c r="F25" s="309"/>
+      <c r="G25" s="310"/>
       <c r="H25" s="131" t="s">
         <v>86</v>
       </c>
@@ -59298,10 +59231,10 @@
       <c r="D27" s="33"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="494"/>
-      <c r="H27" s="493">
+        <v>152</v>
+      </c>
+      <c r="G27" s="312"/>
+      <c r="H27" s="311">
         <v>0</v>
       </c>
       <c r="I27" s="33"/>
@@ -59324,88 +59257,88 @@
       <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="379" t="s">
+      <c r="A29" s="376" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="380"/>
-      <c r="C29" s="380"/>
-      <c r="D29" s="380"/>
-      <c r="E29" s="380"/>
-      <c r="F29" s="380"/>
-      <c r="G29" s="380"/>
-      <c r="H29" s="380"/>
-      <c r="I29" s="380"/>
-      <c r="J29" s="380"/>
-      <c r="K29" s="381"/>
+      <c r="B29" s="377"/>
+      <c r="C29" s="377"/>
+      <c r="D29" s="377"/>
+      <c r="E29" s="377"/>
+      <c r="F29" s="377"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="377"/>
+      <c r="I29" s="377"/>
+      <c r="J29" s="377"/>
+      <c r="K29" s="378"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="382"/>
-      <c r="B30" s="383"/>
-      <c r="C30" s="383"/>
-      <c r="D30" s="383"/>
-      <c r="E30" s="383"/>
-      <c r="F30" s="383"/>
-      <c r="G30" s="383"/>
-      <c r="H30" s="383"/>
-      <c r="I30" s="383"/>
-      <c r="J30" s="383"/>
-      <c r="K30" s="384"/>
+      <c r="A30" s="379"/>
+      <c r="B30" s="380"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="380"/>
+      <c r="E30" s="380"/>
+      <c r="F30" s="380"/>
+      <c r="G30" s="380"/>
+      <c r="H30" s="380"/>
+      <c r="I30" s="380"/>
+      <c r="J30" s="380"/>
+      <c r="K30" s="381"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="382"/>
-      <c r="B31" s="383"/>
-      <c r="C31" s="383"/>
-      <c r="D31" s="383"/>
-      <c r="E31" s="383"/>
-      <c r="F31" s="383"/>
-      <c r="G31" s="383"/>
-      <c r="H31" s="383"/>
-      <c r="I31" s="383"/>
-      <c r="J31" s="383"/>
-      <c r="K31" s="384"/>
+      <c r="A31" s="379"/>
+      <c r="B31" s="380"/>
+      <c r="C31" s="380"/>
+      <c r="D31" s="380"/>
+      <c r="E31" s="380"/>
+      <c r="F31" s="380"/>
+      <c r="G31" s="380"/>
+      <c r="H31" s="380"/>
+      <c r="I31" s="380"/>
+      <c r="J31" s="380"/>
+      <c r="K31" s="381"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="382"/>
-      <c r="B32" s="383"/>
-      <c r="C32" s="383"/>
-      <c r="D32" s="383"/>
-      <c r="E32" s="383"/>
-      <c r="F32" s="383"/>
-      <c r="G32" s="383"/>
-      <c r="H32" s="383"/>
-      <c r="I32" s="383"/>
-      <c r="J32" s="383"/>
-      <c r="K32" s="384"/>
+      <c r="A32" s="379"/>
+      <c r="B32" s="380"/>
+      <c r="C32" s="380"/>
+      <c r="D32" s="380"/>
+      <c r="E32" s="380"/>
+      <c r="F32" s="380"/>
+      <c r="G32" s="380"/>
+      <c r="H32" s="380"/>
+      <c r="I32" s="380"/>
+      <c r="J32" s="380"/>
+      <c r="K32" s="381"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="385"/>
-      <c r="B33" s="386"/>
-      <c r="C33" s="386"/>
-      <c r="D33" s="386"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="386"/>
-      <c r="G33" s="386"/>
-      <c r="H33" s="386"/>
-      <c r="I33" s="386"/>
-      <c r="J33" s="386"/>
-      <c r="K33" s="387"/>
+      <c r="A33" s="382"/>
+      <c r="B33" s="383"/>
+      <c r="C33" s="383"/>
+      <c r="D33" s="383"/>
+      <c r="E33" s="383"/>
+      <c r="F33" s="383"/>
+      <c r="G33" s="383"/>
+      <c r="H33" s="383"/>
+      <c r="I33" s="383"/>
+      <c r="J33" s="383"/>
+      <c r="K33" s="384"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="388" t="s">
+      <c r="A35" s="385" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="388"/>
-      <c r="C35" s="388"/>
-      <c r="D35" s="388"/>
-      <c r="E35" s="388"/>
-      <c r="F35" s="388"/>
-      <c r="G35" s="388"/>
-      <c r="H35" s="389">
+      <c r="B35" s="385"/>
+      <c r="C35" s="385"/>
+      <c r="D35" s="385"/>
+      <c r="E35" s="385"/>
+      <c r="F35" s="385"/>
+      <c r="G35" s="385"/>
+      <c r="H35" s="386">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="389"/>
+      <c r="I35" s="386"/>
       <c r="J35" s="34" t="s">
         <v>46</v>
       </c>
@@ -59415,20 +59348,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="388" t="s">
+      <c r="A36" s="385" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="388"/>
-      <c r="C36" s="388"/>
-      <c r="D36" s="388"/>
-      <c r="E36" s="388"/>
-      <c r="F36" s="388"/>
-      <c r="G36" s="388"/>
-      <c r="H36" s="390">
+      <c r="B36" s="385"/>
+      <c r="C36" s="385"/>
+      <c r="D36" s="385"/>
+      <c r="E36" s="385"/>
+      <c r="F36" s="385"/>
+      <c r="G36" s="385"/>
+      <c r="H36" s="387">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="390"/>
+      <c r="I36" s="387"/>
       <c r="J36" s="57" t="s">
         <v>62</v>
       </c>
@@ -59455,14 +59388,14 @@
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
-      <c r="E38" s="376" t="s">
+      <c r="E38" s="373" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="377"/>
-      <c r="G38" s="377"/>
-      <c r="H38" s="377"/>
-      <c r="I38" s="377"/>
-      <c r="J38" s="378"/>
+      <c r="F38" s="374"/>
+      <c r="G38" s="374"/>
+      <c r="H38" s="374"/>
+      <c r="I38" s="374"/>
+      <c r="J38" s="375"/>
       <c r="K38" s="58">
         <f>K37/4</f>
         <v>0</v>
@@ -59546,20 +59479,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -59576,18 +59507,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
@@ -59670,9 +59603,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="444"/>
-      <c r="E4" s="444"/>
+      <c r="C4" s="408"/>
+      <c r="D4" s="408"/>
+      <c r="E4" s="408"/>
       <c r="F4" s="284"/>
       <c r="H4" s="282"/>
       <c r="I4" s="281" t="s">
@@ -59687,10 +59620,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="277"/>
-      <c r="C5" s="445"/>
-      <c r="D5" s="445"/>
-      <c r="E5" s="445"/>
-      <c r="F5" s="445"/>
+      <c r="C5" s="409"/>
+      <c r="D5" s="409"/>
+      <c r="E5" s="409"/>
+      <c r="F5" s="409"/>
       <c r="H5" s="282"/>
       <c r="I5" s="281" t="s">
         <v>13</v>
@@ -59712,87 +59645,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="277"/>
-      <c r="C7" s="445"/>
-      <c r="D7" s="445"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="445"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="409"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="409"/>
       <c r="H7" s="257" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="446"/>
-      <c r="J7" s="447"/>
-      <c r="K7" s="447"/>
-      <c r="L7" s="447"/>
+      <c r="I7" s="410"/>
+      <c r="J7" s="411"/>
+      <c r="K7" s="411"/>
+      <c r="L7" s="411"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="257" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="257"/>
-      <c r="C8" s="444"/>
-      <c r="D8" s="444"/>
-      <c r="E8" s="444"/>
-      <c r="F8" s="444"/>
+      <c r="C8" s="408"/>
+      <c r="D8" s="408"/>
+      <c r="E8" s="408"/>
+      <c r="F8" s="408"/>
       <c r="H8" s="277" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="442"/>
-      <c r="J8" s="443"/>
-      <c r="K8" s="443"/>
-      <c r="L8" s="443"/>
+      <c r="I8" s="406"/>
+      <c r="J8" s="407"/>
+      <c r="K8" s="407"/>
+      <c r="L8" s="407"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="277" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="277"/>
-      <c r="C9" s="445"/>
-      <c r="D9" s="445"/>
-      <c r="E9" s="445"/>
-      <c r="F9" s="445"/>
+      <c r="C9" s="409"/>
+      <c r="D9" s="409"/>
+      <c r="E9" s="409"/>
+      <c r="F9" s="409"/>
       <c r="H9" s="277" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="442"/>
-      <c r="J9" s="443"/>
-      <c r="K9" s="443"/>
-      <c r="L9" s="443"/>
+      <c r="I9" s="406"/>
+      <c r="J9" s="407"/>
+      <c r="K9" s="407"/>
+      <c r="L9" s="407"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="277" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="277"/>
-      <c r="C10" s="445"/>
-      <c r="D10" s="445"/>
-      <c r="E10" s="445"/>
-      <c r="F10" s="445"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="409"/>
+      <c r="E10" s="409"/>
+      <c r="F10" s="409"/>
       <c r="H10" s="277" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="442"/>
-      <c r="J10" s="443"/>
-      <c r="K10" s="443"/>
-      <c r="L10" s="443"/>
+      <c r="I10" s="406"/>
+      <c r="J10" s="407"/>
+      <c r="K10" s="407"/>
+      <c r="L10" s="407"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="277" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="442"/>
-      <c r="J11" s="443"/>
-      <c r="K11" s="443"/>
-      <c r="L11" s="443"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
+      <c r="K11" s="407"/>
+      <c r="L11" s="407"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="278"/>
       <c r="H12" s="277" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="442"/>
-      <c r="J12" s="443"/>
-      <c r="K12" s="443"/>
-      <c r="L12" s="443"/>
+      <c r="I12" s="406"/>
+      <c r="J12" s="407"/>
+      <c r="K12" s="407"/>
+      <c r="L12" s="407"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="276"/>
@@ -59808,99 +59741,99 @@
       <c r="E14" s="273"/>
       <c r="F14" s="273"/>
       <c r="G14" s="273"/>
-      <c r="H14" s="422" t="s">
+      <c r="H14" s="412" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="423"/>
-      <c r="J14" s="424" t="s">
+      <c r="I14" s="413"/>
+      <c r="J14" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="425"/>
-      <c r="L14" s="426"/>
+      <c r="K14" s="415"/>
+      <c r="L14" s="416"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="408" t="s">
+      <c r="A15" s="417" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="428" t="s">
+      <c r="B15" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="428" t="s">
+      <c r="C15" s="420" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="428"/>
-      <c r="E15" s="428"/>
-      <c r="F15" s="413" t="s">
+      <c r="D15" s="420"/>
+      <c r="E15" s="420"/>
+      <c r="F15" s="422" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="430"/>
-      <c r="H15" s="431"/>
-      <c r="I15" s="432"/>
-      <c r="J15" s="433">
+      <c r="G15" s="423"/>
+      <c r="H15" s="424"/>
+      <c r="I15" s="425"/>
+      <c r="J15" s="426">
         <v>0.2</v>
       </c>
-      <c r="K15" s="485"/>
-      <c r="L15" s="436">
+      <c r="K15" s="349"/>
+      <c r="L15" s="429">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="427"/>
-      <c r="B16" s="428"/>
-      <c r="C16" s="428" t="s">
+      <c r="A16" s="418"/>
+      <c r="B16" s="420"/>
+      <c r="C16" s="420" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="428"/>
-      <c r="E16" s="428"/>
-      <c r="F16" s="438" t="s">
+      <c r="D16" s="420"/>
+      <c r="E16" s="420"/>
+      <c r="F16" s="431" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="439"/>
-      <c r="H16" s="415"/>
-      <c r="I16" s="416"/>
-      <c r="J16" s="434"/>
-      <c r="K16" s="485"/>
-      <c r="L16" s="436"/>
+      <c r="G16" s="432"/>
+      <c r="H16" s="433"/>
+      <c r="I16" s="434"/>
+      <c r="J16" s="427"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="429"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="409"/>
-      <c r="B17" s="429"/>
-      <c r="C17" s="429" t="s">
+      <c r="A17" s="419"/>
+      <c r="B17" s="421"/>
+      <c r="C17" s="421" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="429"/>
-      <c r="E17" s="429"/>
-      <c r="F17" s="438" t="s">
+      <c r="D17" s="421"/>
+      <c r="E17" s="421"/>
+      <c r="F17" s="431" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="439"/>
-      <c r="H17" s="440"/>
-      <c r="I17" s="441"/>
-      <c r="J17" s="435"/>
-      <c r="K17" s="486"/>
-      <c r="L17" s="437"/>
+      <c r="G17" s="432"/>
+      <c r="H17" s="435"/>
+      <c r="I17" s="436"/>
+      <c r="J17" s="428"/>
+      <c r="K17" s="350"/>
+      <c r="L17" s="430"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="408" t="s">
+      <c r="A18" s="417" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="410" t="s">
+      <c r="B18" s="437" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="411"/>
-      <c r="D18" s="411"/>
-      <c r="E18" s="412"/>
-      <c r="F18" s="413" t="s">
+      <c r="C18" s="438"/>
+      <c r="D18" s="438"/>
+      <c r="E18" s="439"/>
+      <c r="F18" s="422" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="414"/>
-      <c r="H18" s="415"/>
-      <c r="I18" s="416"/>
+      <c r="G18" s="440"/>
+      <c r="H18" s="433"/>
+      <c r="I18" s="434"/>
       <c r="J18" s="272">
         <v>0.4</v>
       </c>
-      <c r="K18" s="487"/>
+      <c r="K18" s="305"/>
       <c r="L18" s="271">
         <f>K18*0.4</f>
         <v>0</v>
@@ -59908,23 +59841,23 @@
       <c r="M18" s="251"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="409"/>
-      <c r="B19" s="417" t="s">
+      <c r="A19" s="419"/>
+      <c r="B19" s="441" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="418"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="419"/>
-      <c r="F19" s="420" t="s">
+      <c r="C19" s="442"/>
+      <c r="D19" s="442"/>
+      <c r="E19" s="443"/>
+      <c r="F19" s="444" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="421"/>
-      <c r="H19" s="415"/>
-      <c r="I19" s="416"/>
+      <c r="G19" s="445"/>
+      <c r="H19" s="433"/>
+      <c r="I19" s="434"/>
       <c r="J19" s="272">
         <v>0.4</v>
       </c>
-      <c r="K19" s="487"/>
+      <c r="K19" s="305"/>
       <c r="L19" s="271">
         <f>K19*0.4</f>
         <v>0</v>
@@ -59934,19 +59867,19 @@
       <c r="A20" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="396" t="s">
+      <c r="B20" s="446" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="397"/>
-      <c r="D20" s="397"/>
-      <c r="E20" s="397"/>
-      <c r="F20" s="397"/>
-      <c r="G20" s="397"/>
-      <c r="H20" s="397"/>
-      <c r="I20" s="397"/>
-      <c r="J20" s="398"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="447"/>
+      <c r="E20" s="447"/>
+      <c r="F20" s="447"/>
+      <c r="G20" s="447"/>
+      <c r="H20" s="447"/>
+      <c r="I20" s="447"/>
+      <c r="J20" s="448"/>
       <c r="K20" s="269"/>
-      <c r="L20" s="488"/>
+      <c r="L20" s="306"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H21" s="265"/>
@@ -59962,90 +59895,90 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="399" t="s">
+      <c r="A23" s="449" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="400"/>
-      <c r="C23" s="400"/>
-      <c r="D23" s="400"/>
-      <c r="E23" s="400"/>
-      <c r="F23" s="400"/>
-      <c r="G23" s="400"/>
-      <c r="H23" s="400"/>
-      <c r="I23" s="400"/>
-      <c r="J23" s="400"/>
-      <c r="K23" s="400"/>
-      <c r="L23" s="401"/>
+      <c r="B23" s="450"/>
+      <c r="C23" s="450"/>
+      <c r="D23" s="450"/>
+      <c r="E23" s="450"/>
+      <c r="F23" s="450"/>
+      <c r="G23" s="450"/>
+      <c r="H23" s="450"/>
+      <c r="I23" s="450"/>
+      <c r="J23" s="450"/>
+      <c r="K23" s="450"/>
+      <c r="L23" s="451"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="402"/>
-      <c r="B24" s="403"/>
-      <c r="C24" s="403"/>
-      <c r="D24" s="403"/>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="403"/>
-      <c r="H24" s="403"/>
-      <c r="I24" s="403"/>
-      <c r="J24" s="403"/>
-      <c r="K24" s="403"/>
-      <c r="L24" s="404"/>
+      <c r="A24" s="452"/>
+      <c r="B24" s="453"/>
+      <c r="C24" s="453"/>
+      <c r="D24" s="453"/>
+      <c r="E24" s="453"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="453"/>
+      <c r="H24" s="453"/>
+      <c r="I24" s="453"/>
+      <c r="J24" s="453"/>
+      <c r="K24" s="453"/>
+      <c r="L24" s="454"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="402"/>
-      <c r="B25" s="403"/>
-      <c r="C25" s="403"/>
-      <c r="D25" s="403"/>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="403"/>
-      <c r="H25" s="403"/>
-      <c r="I25" s="403"/>
-      <c r="J25" s="403"/>
-      <c r="K25" s="403"/>
-      <c r="L25" s="404"/>
+      <c r="A25" s="452"/>
+      <c r="B25" s="453"/>
+      <c r="C25" s="453"/>
+      <c r="D25" s="453"/>
+      <c r="E25" s="453"/>
+      <c r="F25" s="453"/>
+      <c r="G25" s="453"/>
+      <c r="H25" s="453"/>
+      <c r="I25" s="453"/>
+      <c r="J25" s="453"/>
+      <c r="K25" s="453"/>
+      <c r="L25" s="454"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="402"/>
-      <c r="B26" s="403"/>
-      <c r="C26" s="403"/>
-      <c r="D26" s="403"/>
-      <c r="E26" s="403"/>
-      <c r="F26" s="403"/>
-      <c r="G26" s="403"/>
-      <c r="H26" s="403"/>
-      <c r="I26" s="403"/>
-      <c r="J26" s="403"/>
-      <c r="K26" s="403"/>
-      <c r="L26" s="404"/>
+      <c r="A26" s="452"/>
+      <c r="B26" s="453"/>
+      <c r="C26" s="453"/>
+      <c r="D26" s="453"/>
+      <c r="E26" s="453"/>
+      <c r="F26" s="453"/>
+      <c r="G26" s="453"/>
+      <c r="H26" s="453"/>
+      <c r="I26" s="453"/>
+      <c r="J26" s="453"/>
+      <c r="K26" s="453"/>
+      <c r="L26" s="454"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="405"/>
-      <c r="B27" s="406"/>
-      <c r="C27" s="406"/>
-      <c r="D27" s="406"/>
-      <c r="E27" s="406"/>
-      <c r="F27" s="406"/>
-      <c r="G27" s="406"/>
-      <c r="H27" s="406"/>
-      <c r="I27" s="406"/>
-      <c r="J27" s="406"/>
-      <c r="K27" s="406"/>
-      <c r="L27" s="407"/>
+      <c r="A27" s="455"/>
+      <c r="B27" s="456"/>
+      <c r="C27" s="456"/>
+      <c r="D27" s="456"/>
+      <c r="E27" s="456"/>
+      <c r="F27" s="456"/>
+      <c r="G27" s="456"/>
+      <c r="H27" s="456"/>
+      <c r="I27" s="456"/>
+      <c r="J27" s="456"/>
+      <c r="K27" s="456"/>
+      <c r="L27" s="457"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="394" t="s">
+      <c r="A29" s="458" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="394"/>
-      <c r="C29" s="394"/>
-      <c r="D29" s="394"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="394"/>
-      <c r="G29" s="394"/>
-      <c r="H29" s="394"/>
-      <c r="I29" s="495"/>
-      <c r="J29" s="495"/>
+      <c r="B29" s="458"/>
+      <c r="C29" s="458"/>
+      <c r="D29" s="458"/>
+      <c r="E29" s="458"/>
+      <c r="F29" s="458"/>
+      <c r="G29" s="458"/>
+      <c r="H29" s="458"/>
+      <c r="I29" s="459"/>
+      <c r="J29" s="459"/>
       <c r="K29" s="267" t="s">
         <v>45</v>
       </c>
@@ -60055,18 +59988,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="394" t="s">
+      <c r="A30" s="458" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="394"/>
-      <c r="C30" s="394"/>
-      <c r="D30" s="394"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="394"/>
-      <c r="G30" s="394"/>
-      <c r="H30" s="394"/>
-      <c r="I30" s="495"/>
-      <c r="J30" s="495"/>
+      <c r="B30" s="458"/>
+      <c r="C30" s="458"/>
+      <c r="D30" s="458"/>
+      <c r="E30" s="458"/>
+      <c r="F30" s="458"/>
+      <c r="G30" s="458"/>
+      <c r="H30" s="458"/>
+      <c r="I30" s="459"/>
+      <c r="J30" s="459"/>
       <c r="K30" s="266" t="s">
         <v>45</v>
       </c>
@@ -60076,18 +60009,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="394" t="s">
+      <c r="A31" s="458" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="394"/>
-      <c r="D31" s="394"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="394"/>
-      <c r="G31" s="394"/>
-      <c r="H31" s="394"/>
-      <c r="I31" s="495"/>
-      <c r="J31" s="495"/>
+      <c r="B31" s="458"/>
+      <c r="C31" s="458"/>
+      <c r="D31" s="458"/>
+      <c r="E31" s="458"/>
+      <c r="F31" s="458"/>
+      <c r="G31" s="458"/>
+      <c r="H31" s="458"/>
+      <c r="I31" s="459"/>
+      <c r="J31" s="459"/>
       <c r="K31" s="266" t="s">
         <v>100</v>
       </c>
@@ -60097,18 +60030,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="394" t="s">
+      <c r="A32" s="458" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="394"/>
-      <c r="C32" s="394"/>
-      <c r="D32" s="394"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="394"/>
-      <c r="G32" s="394"/>
-      <c r="H32" s="394"/>
-      <c r="I32" s="495"/>
-      <c r="J32" s="495"/>
+      <c r="B32" s="458"/>
+      <c r="C32" s="458"/>
+      <c r="D32" s="458"/>
+      <c r="E32" s="458"/>
+      <c r="F32" s="458"/>
+      <c r="G32" s="458"/>
+      <c r="H32" s="458"/>
+      <c r="I32" s="459"/>
+      <c r="J32" s="459"/>
       <c r="K32" s="266" t="s">
         <v>47</v>
       </c>
@@ -60118,21 +60051,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="394" t="s">
+      <c r="A33" s="458" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="394"/>
-      <c r="C33" s="394"/>
-      <c r="D33" s="394"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="394"/>
-      <c r="G33" s="394"/>
-      <c r="H33" s="394"/>
-      <c r="I33" s="395">
+      <c r="B33" s="458"/>
+      <c r="C33" s="458"/>
+      <c r="D33" s="458"/>
+      <c r="E33" s="458"/>
+      <c r="F33" s="458"/>
+      <c r="G33" s="458"/>
+      <c r="H33" s="458"/>
+      <c r="I33" s="463">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="395"/>
+      <c r="J33" s="463"/>
       <c r="K33" s="266" t="s">
         <v>100</v>
       </c>
@@ -60154,14 +60087,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="391" t="s">
+      <c r="F35" s="460" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="392"/>
-      <c r="H35" s="392"/>
-      <c r="I35" s="392"/>
-      <c r="J35" s="392"/>
-      <c r="K35" s="393"/>
+      <c r="G35" s="461"/>
+      <c r="H35" s="461"/>
+      <c r="I35" s="461"/>
+      <c r="J35" s="461"/>
+      <c r="K35" s="462"/>
       <c r="L35" s="261">
         <f>L34/10</f>
         <v>0</v>
@@ -60252,18 +60185,26 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -60280,26 +60221,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
@@ -60376,8 +60309,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
+      <c r="C4" s="369"/>
+      <c r="D4" s="369"/>
       <c r="E4" s="42"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -60392,9 +60325,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -60416,83 +60349,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
       <c r="G7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
+      <c r="H7" s="370"/>
+      <c r="I7" s="371"/>
+      <c r="J7" s="371"/>
+      <c r="K7" s="371"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
       <c r="G8" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="307"/>
-      <c r="I8" s="308"/>
-      <c r="J8" s="308"/>
-      <c r="K8" s="308"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
       <c r="G9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="307"/>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="362"/>
+      <c r="K9" s="362"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
       <c r="G10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="307"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="308"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="307"/>
-      <c r="I11" s="308"/>
-      <c r="J11" s="308"/>
-      <c r="K11" s="308"/>
+      <c r="H11" s="361"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="307"/>
-      <c r="I12" s="308"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="308"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="362"/>
+      <c r="J12" s="362"/>
+      <c r="K12" s="362"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -60522,102 +60455,102 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="312" t="s">
+      <c r="A15" s="363" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="313"/>
-      <c r="C15" s="314"/>
-      <c r="D15" s="482"/>
-      <c r="E15" s="482"/>
-      <c r="F15" s="482"/>
-      <c r="G15" s="482"/>
-      <c r="H15" s="482"/>
-      <c r="I15" s="482"/>
+      <c r="B15" s="364"/>
+      <c r="C15" s="365"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
       <c r="J15" s="12">
         <f t="shared" ref="J15:J20" si="0">SUM(D15:I15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="309" t="s">
+      <c r="A16" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="310"/>
-      <c r="C16" s="311"/>
-      <c r="D16" s="482"/>
-      <c r="E16" s="482"/>
-      <c r="F16" s="482"/>
-      <c r="G16" s="482"/>
-      <c r="H16" s="482"/>
-      <c r="I16" s="482"/>
+      <c r="B16" s="358"/>
+      <c r="C16" s="359"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
       <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="309" t="s">
+      <c r="A17" s="357" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="310"/>
-      <c r="C17" s="311"/>
-      <c r="D17" s="482"/>
-      <c r="E17" s="482"/>
-      <c r="F17" s="482"/>
-      <c r="G17" s="482"/>
-      <c r="H17" s="482"/>
-      <c r="I17" s="482"/>
+      <c r="B17" s="358"/>
+      <c r="C17" s="359"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
       <c r="J17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="315" t="s">
+      <c r="A18" s="366" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="316"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="482"/>
-      <c r="E18" s="482"/>
-      <c r="F18" s="482"/>
-      <c r="G18" s="482"/>
-      <c r="H18" s="482"/>
-      <c r="I18" s="482"/>
+      <c r="B18" s="367"/>
+      <c r="C18" s="368"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
       <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="309" t="s">
+      <c r="A19" s="357" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="310"/>
-      <c r="C19" s="311"/>
-      <c r="D19" s="482"/>
-      <c r="E19" s="482"/>
-      <c r="F19" s="482"/>
-      <c r="G19" s="482"/>
-      <c r="H19" s="482"/>
-      <c r="I19" s="482"/>
+      <c r="B19" s="358"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
       <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="309" t="s">
+      <c r="A20" s="357" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="310"/>
-      <c r="C20" s="311"/>
-      <c r="D20" s="482"/>
-      <c r="E20" s="482"/>
-      <c r="F20" s="482"/>
-      <c r="G20" s="482"/>
-      <c r="H20" s="482"/>
-      <c r="I20" s="482"/>
+      <c r="B20" s="358"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="302"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
       <c r="J20" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -60647,9 +60580,9 @@
       <c r="A23" s="15"/>
       <c r="E23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="483"/>
+        <v>152</v>
+      </c>
+      <c r="H23" s="303"/>
       <c r="I23" s="1" t="s">
         <v>44</v>
       </c>
@@ -60700,117 +60633,117 @@
       <c r="D28" s="48"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
-      <c r="G28" s="318" t="s">
+      <c r="G28" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="319"/>
-      <c r="I28" s="320" t="s">
+      <c r="H28" s="335"/>
+      <c r="I28" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="321"/>
-      <c r="K28" s="322"/>
+      <c r="J28" s="337"/>
+      <c r="K28" s="338"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="323" t="s">
+      <c r="A29" s="320" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="326" t="s">
+      <c r="B29" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="326" t="s">
+      <c r="C29" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="326"/>
-      <c r="E29" s="328" t="s">
+      <c r="D29" s="340"/>
+      <c r="E29" s="342" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="329"/>
-      <c r="G29" s="330"/>
-      <c r="H29" s="331"/>
-      <c r="I29" s="332">
+      <c r="F29" s="343"/>
+      <c r="G29" s="344"/>
+      <c r="H29" s="345"/>
+      <c r="I29" s="346">
         <v>0.2</v>
       </c>
-      <c r="J29" s="485"/>
-      <c r="K29" s="337">
+      <c r="J29" s="349"/>
+      <c r="K29" s="351">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="324"/>
-      <c r="B30" s="326"/>
-      <c r="C30" s="326" t="s">
+      <c r="A30" s="339"/>
+      <c r="B30" s="340"/>
+      <c r="C30" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="326"/>
-      <c r="E30" s="339" t="s">
+      <c r="D30" s="340"/>
+      <c r="E30" s="353" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="340"/>
-      <c r="G30" s="341"/>
-      <c r="H30" s="342"/>
-      <c r="I30" s="333"/>
-      <c r="J30" s="485"/>
-      <c r="K30" s="337"/>
+      <c r="F30" s="354"/>
+      <c r="G30" s="327"/>
+      <c r="H30" s="328"/>
+      <c r="I30" s="347"/>
+      <c r="J30" s="349"/>
+      <c r="K30" s="351"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="325"/>
-      <c r="B31" s="327"/>
-      <c r="C31" s="327" t="s">
+      <c r="A31" s="321"/>
+      <c r="B31" s="341"/>
+      <c r="C31" s="341" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="327"/>
-      <c r="E31" s="339" t="s">
+      <c r="D31" s="341"/>
+      <c r="E31" s="353" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="340"/>
-      <c r="G31" s="343"/>
-      <c r="H31" s="344"/>
-      <c r="I31" s="334"/>
-      <c r="J31" s="486"/>
-      <c r="K31" s="338"/>
+      <c r="F31" s="354"/>
+      <c r="G31" s="355"/>
+      <c r="H31" s="356"/>
+      <c r="I31" s="348"/>
+      <c r="J31" s="350"/>
+      <c r="K31" s="352"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="323" t="s">
+      <c r="A32" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="348" t="s">
+      <c r="B32" s="322" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="349"/>
-      <c r="D32" s="350"/>
-      <c r="E32" s="351" t="s">
+      <c r="C32" s="323"/>
+      <c r="D32" s="324"/>
+      <c r="E32" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="352"/>
-      <c r="G32" s="341"/>
-      <c r="H32" s="342"/>
+      <c r="F32" s="326"/>
+      <c r="G32" s="327"/>
+      <c r="H32" s="328"/>
       <c r="I32" s="49">
         <v>0.4</v>
       </c>
-      <c r="J32" s="487"/>
+      <c r="J32" s="305"/>
       <c r="K32" s="143">
         <f>J32*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="325"/>
-      <c r="B33" s="353" t="s">
+      <c r="A33" s="321"/>
+      <c r="B33" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="354"/>
-      <c r="D33" s="355"/>
-      <c r="E33" s="356" t="s">
+      <c r="C33" s="330"/>
+      <c r="D33" s="331"/>
+      <c r="E33" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="357"/>
-      <c r="G33" s="341"/>
-      <c r="H33" s="342"/>
+      <c r="F33" s="333"/>
+      <c r="G33" s="327"/>
+      <c r="H33" s="328"/>
       <c r="I33" s="49">
         <v>0.4</v>
       </c>
-      <c r="J33" s="487"/>
+      <c r="J33" s="305"/>
       <c r="K33" s="143">
         <f>J33*0.4</f>
         <v>0</v>
@@ -60820,18 +60753,18 @@
       <c r="A34" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="345" t="s">
+      <c r="B34" s="317" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="346"/>
-      <c r="D34" s="346"/>
-      <c r="E34" s="346"/>
-      <c r="F34" s="346"/>
-      <c r="G34" s="346"/>
-      <c r="H34" s="346"/>
-      <c r="I34" s="347"/>
+      <c r="C34" s="318"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="318"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="318"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="319"/>
       <c r="J34" s="60"/>
-      <c r="K34" s="496">
+      <c r="K34" s="313">
         <f>J34</f>
         <v>0</v>
       </c>
@@ -60934,25 +60867,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
@@ -60968,14 +60890,25 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
@@ -61055,8 +60988,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
       <c r="E4" s="292"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -61071,9 +61004,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -61095,83 +61028,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
+      <c r="C7" s="360"/>
+      <c r="D7" s="360"/>
+      <c r="E7" s="360"/>
       <c r="G7" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="304"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
+      <c r="H7" s="370"/>
+      <c r="I7" s="371"/>
+      <c r="J7" s="371"/>
+      <c r="K7" s="371"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
       <c r="G8" s="289" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="307"/>
-      <c r="I8" s="308"/>
-      <c r="J8" s="308"/>
-      <c r="K8" s="308"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="360"/>
+      <c r="E9" s="360"/>
       <c r="G9" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="307"/>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="362"/>
+      <c r="K9" s="362"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="E10" s="360"/>
       <c r="G10" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="307"/>
-      <c r="I10" s="308"/>
-      <c r="J10" s="308"/>
-      <c r="K10" s="308"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="307"/>
-      <c r="I11" s="308"/>
-      <c r="J11" s="308"/>
-      <c r="K11" s="308"/>
+      <c r="H11" s="361"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="289" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="307"/>
-      <c r="I12" s="308"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="308"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="362"/>
+      <c r="J12" s="362"/>
+      <c r="K12" s="362"/>
     </row>
     <row r="13" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -61186,97 +61119,97 @@
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
-      <c r="G14" s="318" t="s">
+      <c r="G14" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="319"/>
-      <c r="I14" s="320" t="s">
+      <c r="H14" s="335"/>
+      <c r="I14" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="321"/>
-      <c r="K14" s="322"/>
+      <c r="J14" s="337"/>
+      <c r="K14" s="338"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="358" t="s">
+      <c r="A15" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="361" t="s">
+      <c r="B15" s="401" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="361" t="s">
+      <c r="C15" s="401" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="361"/>
-      <c r="E15" s="363" t="s">
+      <c r="D15" s="401"/>
+      <c r="E15" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="364"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="331"/>
-      <c r="I15" s="332">
+      <c r="F15" s="403"/>
+      <c r="G15" s="344"/>
+      <c r="H15" s="345"/>
+      <c r="I15" s="346">
         <v>0.2</v>
       </c>
-      <c r="J15" s="485">
+      <c r="J15" s="349">
         <v>0</v>
       </c>
-      <c r="K15" s="337">
+      <c r="K15" s="351">
         <f>J15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="359"/>
-      <c r="B16" s="361"/>
-      <c r="C16" s="361" t="s">
+      <c r="A16" s="400"/>
+      <c r="B16" s="401"/>
+      <c r="C16" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="361"/>
-      <c r="E16" s="365" t="s">
+      <c r="D16" s="401"/>
+      <c r="E16" s="404" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="366"/>
-      <c r="G16" s="341"/>
-      <c r="H16" s="342"/>
-      <c r="I16" s="333"/>
-      <c r="J16" s="485"/>
-      <c r="K16" s="337"/>
+      <c r="F16" s="405"/>
+      <c r="G16" s="327"/>
+      <c r="H16" s="328"/>
+      <c r="I16" s="347"/>
+      <c r="J16" s="349"/>
+      <c r="K16" s="351"/>
     </row>
     <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="360"/>
-      <c r="B17" s="362"/>
-      <c r="C17" s="362" t="s">
+      <c r="A17" s="389"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="362"/>
-      <c r="E17" s="365" t="s">
+      <c r="D17" s="402"/>
+      <c r="E17" s="404" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="366"/>
-      <c r="G17" s="343"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="334"/>
-      <c r="J17" s="486"/>
-      <c r="K17" s="338"/>
+      <c r="F17" s="405"/>
+      <c r="G17" s="355"/>
+      <c r="H17" s="356"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="350"/>
+      <c r="K17" s="352"/>
     </row>
     <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="358" t="s">
+      <c r="A18" s="388" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="367" t="s">
+      <c r="B18" s="390" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="368"/>
-      <c r="D18" s="369"/>
-      <c r="E18" s="363" t="s">
+      <c r="C18" s="391"/>
+      <c r="D18" s="392"/>
+      <c r="E18" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="370"/>
-      <c r="G18" s="341"/>
-      <c r="H18" s="342"/>
+      <c r="F18" s="394"/>
+      <c r="G18" s="327"/>
+      <c r="H18" s="328"/>
       <c r="I18" s="286">
         <v>0.4</v>
       </c>
-      <c r="J18" s="487">
+      <c r="J18" s="305">
         <v>0</v>
       </c>
       <c r="K18" s="288">
@@ -61286,22 +61219,22 @@
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="360"/>
-      <c r="B19" s="371" t="s">
+      <c r="A19" s="389"/>
+      <c r="B19" s="395" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="372"/>
-      <c r="D19" s="373"/>
-      <c r="E19" s="374" t="s">
+      <c r="C19" s="396"/>
+      <c r="D19" s="397"/>
+      <c r="E19" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="375"/>
-      <c r="G19" s="341"/>
-      <c r="H19" s="342"/>
+      <c r="F19" s="399"/>
+      <c r="G19" s="327"/>
+      <c r="H19" s="328"/>
       <c r="I19" s="286">
         <v>0.4</v>
       </c>
-      <c r="J19" s="487">
+      <c r="J19" s="305">
         <v>0</v>
       </c>
       <c r="K19" s="288">
@@ -61313,18 +61246,18 @@
       <c r="A20" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="345" t="s">
+      <c r="B20" s="317" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="346"/>
-      <c r="D20" s="346"/>
-      <c r="E20" s="346"/>
-      <c r="F20" s="346"/>
-      <c r="G20" s="346"/>
-      <c r="H20" s="346"/>
-      <c r="I20" s="347"/>
+      <c r="C20" s="318"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="318"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="318"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="319"/>
       <c r="J20" s="287"/>
-      <c r="K20" s="489">
+      <c r="K20" s="307">
         <v>0</v>
       </c>
     </row>
@@ -61391,12 +61324,12 @@
       <c r="A24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="490"/>
-      <c r="C24" s="491"/>
-      <c r="D24" s="491"/>
-      <c r="E24" s="491"/>
-      <c r="F24" s="491"/>
-      <c r="G24" s="492"/>
+      <c r="B24" s="308"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="310"/>
       <c r="H24" s="1"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -61406,12 +61339,12 @@
       <c r="A25" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="490"/>
-      <c r="C25" s="491"/>
-      <c r="D25" s="491"/>
-      <c r="E25" s="491"/>
-      <c r="F25" s="491"/>
-      <c r="G25" s="492"/>
+      <c r="B25" s="308"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="309"/>
+      <c r="E25" s="309"/>
+      <c r="F25" s="309"/>
+      <c r="G25" s="310"/>
       <c r="H25" s="131" t="s">
         <v>86</v>
       </c>
@@ -61461,10 +61394,10 @@
       <c r="D27" s="33"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="494"/>
-      <c r="H27" s="493">
+        <v>152</v>
+      </c>
+      <c r="G27" s="312"/>
+      <c r="H27" s="311">
         <v>0</v>
       </c>
       <c r="I27" s="33"/>
@@ -61487,88 +61420,88 @@
       <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="379" t="s">
+      <c r="A29" s="376" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="380"/>
-      <c r="C29" s="380"/>
-      <c r="D29" s="380"/>
-      <c r="E29" s="380"/>
-      <c r="F29" s="380"/>
-      <c r="G29" s="380"/>
-      <c r="H29" s="380"/>
-      <c r="I29" s="380"/>
-      <c r="J29" s="380"/>
-      <c r="K29" s="381"/>
+      <c r="B29" s="377"/>
+      <c r="C29" s="377"/>
+      <c r="D29" s="377"/>
+      <c r="E29" s="377"/>
+      <c r="F29" s="377"/>
+      <c r="G29" s="377"/>
+      <c r="H29" s="377"/>
+      <c r="I29" s="377"/>
+      <c r="J29" s="377"/>
+      <c r="K29" s="378"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="382"/>
-      <c r="B30" s="383"/>
-      <c r="C30" s="383"/>
-      <c r="D30" s="383"/>
-      <c r="E30" s="383"/>
-      <c r="F30" s="383"/>
-      <c r="G30" s="383"/>
-      <c r="H30" s="383"/>
-      <c r="I30" s="383"/>
-      <c r="J30" s="383"/>
-      <c r="K30" s="384"/>
+      <c r="A30" s="379"/>
+      <c r="B30" s="380"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="380"/>
+      <c r="E30" s="380"/>
+      <c r="F30" s="380"/>
+      <c r="G30" s="380"/>
+      <c r="H30" s="380"/>
+      <c r="I30" s="380"/>
+      <c r="J30" s="380"/>
+      <c r="K30" s="381"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="382"/>
-      <c r="B31" s="383"/>
-      <c r="C31" s="383"/>
-      <c r="D31" s="383"/>
-      <c r="E31" s="383"/>
-      <c r="F31" s="383"/>
-      <c r="G31" s="383"/>
-      <c r="H31" s="383"/>
-      <c r="I31" s="383"/>
-      <c r="J31" s="383"/>
-      <c r="K31" s="384"/>
+      <c r="A31" s="379"/>
+      <c r="B31" s="380"/>
+      <c r="C31" s="380"/>
+      <c r="D31" s="380"/>
+      <c r="E31" s="380"/>
+      <c r="F31" s="380"/>
+      <c r="G31" s="380"/>
+      <c r="H31" s="380"/>
+      <c r="I31" s="380"/>
+      <c r="J31" s="380"/>
+      <c r="K31" s="381"/>
     </row>
     <row r="32" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="382"/>
-      <c r="B32" s="383"/>
-      <c r="C32" s="383"/>
-      <c r="D32" s="383"/>
-      <c r="E32" s="383"/>
-      <c r="F32" s="383"/>
-      <c r="G32" s="383"/>
-      <c r="H32" s="383"/>
-      <c r="I32" s="383"/>
-      <c r="J32" s="383"/>
-      <c r="K32" s="384"/>
+      <c r="A32" s="379"/>
+      <c r="B32" s="380"/>
+      <c r="C32" s="380"/>
+      <c r="D32" s="380"/>
+      <c r="E32" s="380"/>
+      <c r="F32" s="380"/>
+      <c r="G32" s="380"/>
+      <c r="H32" s="380"/>
+      <c r="I32" s="380"/>
+      <c r="J32" s="380"/>
+      <c r="K32" s="381"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="385"/>
-      <c r="B33" s="386"/>
-      <c r="C33" s="386"/>
-      <c r="D33" s="386"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="386"/>
-      <c r="G33" s="386"/>
-      <c r="H33" s="386"/>
-      <c r="I33" s="386"/>
-      <c r="J33" s="386"/>
-      <c r="K33" s="387"/>
+      <c r="A33" s="382"/>
+      <c r="B33" s="383"/>
+      <c r="C33" s="383"/>
+      <c r="D33" s="383"/>
+      <c r="E33" s="383"/>
+      <c r="F33" s="383"/>
+      <c r="G33" s="383"/>
+      <c r="H33" s="383"/>
+      <c r="I33" s="383"/>
+      <c r="J33" s="383"/>
+      <c r="K33" s="384"/>
     </row>
     <row r="34" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="388" t="s">
+      <c r="A35" s="385" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="388"/>
-      <c r="C35" s="388"/>
-      <c r="D35" s="388"/>
-      <c r="E35" s="388"/>
-      <c r="F35" s="388"/>
-      <c r="G35" s="388"/>
-      <c r="H35" s="389">
+      <c r="B35" s="385"/>
+      <c r="C35" s="385"/>
+      <c r="D35" s="385"/>
+      <c r="E35" s="385"/>
+      <c r="F35" s="385"/>
+      <c r="G35" s="385"/>
+      <c r="H35" s="386">
         <f>K27</f>
         <v>0</v>
       </c>
-      <c r="I35" s="389"/>
+      <c r="I35" s="386"/>
       <c r="J35" s="34" t="s">
         <v>46</v>
       </c>
@@ -61578,20 +61511,20 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="388" t="s">
+      <c r="A36" s="385" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="388"/>
-      <c r="C36" s="388"/>
-      <c r="D36" s="388"/>
-      <c r="E36" s="388"/>
-      <c r="F36" s="388"/>
-      <c r="G36" s="388"/>
-      <c r="H36" s="390">
+      <c r="B36" s="385"/>
+      <c r="C36" s="385"/>
+      <c r="D36" s="385"/>
+      <c r="E36" s="385"/>
+      <c r="F36" s="385"/>
+      <c r="G36" s="385"/>
+      <c r="H36" s="387">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="I36" s="390"/>
+      <c r="I36" s="387"/>
       <c r="J36" s="57" t="s">
         <v>62</v>
       </c>
@@ -61618,14 +61551,14 @@
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
-      <c r="E38" s="376" t="s">
+      <c r="E38" s="373" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="377"/>
-      <c r="G38" s="377"/>
-      <c r="H38" s="377"/>
-      <c r="I38" s="377"/>
-      <c r="J38" s="378"/>
+      <c r="F38" s="374"/>
+      <c r="G38" s="374"/>
+      <c r="H38" s="374"/>
+      <c r="I38" s="374"/>
+      <c r="J38" s="375"/>
       <c r="K38" s="58">
         <f>K37/4</f>
         <v>0</v>
@@ -61709,26 +61642,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A29:K33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="A15:A17"/>
@@ -61739,18 +61664,26 @@
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A29:K33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H36:I36"/>
   </mergeCells>
   <conditionalFormatting sqref="H36:I36 K15:K42">
     <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
@@ -61833,9 +61766,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="297"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="444"/>
-      <c r="E4" s="444"/>
+      <c r="C4" s="408"/>
+      <c r="D4" s="408"/>
+      <c r="E4" s="408"/>
       <c r="F4" s="295"/>
       <c r="H4" s="282"/>
       <c r="I4" s="281" t="s">
@@ -61850,10 +61783,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="294"/>
-      <c r="C5" s="445"/>
-      <c r="D5" s="445"/>
-      <c r="E5" s="445"/>
-      <c r="F5" s="445"/>
+      <c r="C5" s="409"/>
+      <c r="D5" s="409"/>
+      <c r="E5" s="409"/>
+      <c r="F5" s="409"/>
       <c r="H5" s="282"/>
       <c r="I5" s="281" t="s">
         <v>13</v>
@@ -61875,87 +61808,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="294"/>
-      <c r="C7" s="445"/>
-      <c r="D7" s="445"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="445"/>
+      <c r="C7" s="409"/>
+      <c r="D7" s="409"/>
+      <c r="E7" s="409"/>
+      <c r="F7" s="409"/>
       <c r="H7" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="446"/>
-      <c r="J7" s="447"/>
-      <c r="K7" s="447"/>
-      <c r="L7" s="447"/>
+      <c r="I7" s="410"/>
+      <c r="J7" s="411"/>
+      <c r="K7" s="411"/>
+      <c r="L7" s="411"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="297" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="297"/>
-      <c r="C8" s="444"/>
-      <c r="D8" s="444"/>
-      <c r="E8" s="444"/>
-      <c r="F8" s="444"/>
+      <c r="C8" s="408"/>
+      <c r="D8" s="408"/>
+      <c r="E8" s="408"/>
+      <c r="F8" s="408"/>
       <c r="H8" s="294" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="442"/>
-      <c r="J8" s="443"/>
-      <c r="K8" s="443"/>
-      <c r="L8" s="443"/>
+      <c r="I8" s="406"/>
+      <c r="J8" s="407"/>
+      <c r="K8" s="407"/>
+      <c r="L8" s="407"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="294" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="294"/>
-      <c r="C9" s="445"/>
-      <c r="D9" s="445"/>
-      <c r="E9" s="445"/>
-      <c r="F9" s="445"/>
+      <c r="C9" s="409"/>
+      <c r="D9" s="409"/>
+      <c r="E9" s="409"/>
+      <c r="F9" s="409"/>
       <c r="H9" s="294" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="442"/>
-      <c r="J9" s="443"/>
-      <c r="K9" s="443"/>
-      <c r="L9" s="443"/>
+      <c r="I9" s="406"/>
+      <c r="J9" s="407"/>
+      <c r="K9" s="407"/>
+      <c r="L9" s="407"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="294" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="294"/>
-      <c r="C10" s="445"/>
-      <c r="D10" s="445"/>
-      <c r="E10" s="445"/>
-      <c r="F10" s="445"/>
+      <c r="C10" s="409"/>
+      <c r="D10" s="409"/>
+      <c r="E10" s="409"/>
+      <c r="F10" s="409"/>
       <c r="H10" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="442"/>
-      <c r="J10" s="443"/>
-      <c r="K10" s="443"/>
-      <c r="L10" s="443"/>
+      <c r="I10" s="406"/>
+      <c r="J10" s="407"/>
+      <c r="K10" s="407"/>
+      <c r="L10" s="407"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="442"/>
-      <c r="J11" s="443"/>
-      <c r="K11" s="443"/>
-      <c r="L11" s="443"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
+      <c r="K11" s="407"/>
+      <c r="L11" s="407"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="278"/>
       <c r="H12" s="294" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="442"/>
-      <c r="J12" s="443"/>
-      <c r="K12" s="443"/>
-      <c r="L12" s="443"/>
+      <c r="I12" s="406"/>
+      <c r="J12" s="407"/>
+      <c r="K12" s="407"/>
+      <c r="L12" s="407"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="276"/>
@@ -61971,99 +61904,99 @@
       <c r="E14" s="273"/>
       <c r="F14" s="273"/>
       <c r="G14" s="273"/>
-      <c r="H14" s="422" t="s">
+      <c r="H14" s="412" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="423"/>
-      <c r="J14" s="424" t="s">
+      <c r="I14" s="413"/>
+      <c r="J14" s="414" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="425"/>
-      <c r="L14" s="426"/>
+      <c r="K14" s="415"/>
+      <c r="L14" s="416"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="408" t="s">
+      <c r="A15" s="417" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="428" t="s">
+      <c r="B15" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="428" t="s">
+      <c r="C15" s="420" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="428"/>
-      <c r="E15" s="428"/>
-      <c r="F15" s="413" t="s">
+      <c r="D15" s="420"/>
+      <c r="E15" s="420"/>
+      <c r="F15" s="422" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="430"/>
-      <c r="H15" s="431"/>
-      <c r="I15" s="432"/>
-      <c r="J15" s="433">
+      <c r="G15" s="423"/>
+      <c r="H15" s="424"/>
+      <c r="I15" s="425"/>
+      <c r="J15" s="426">
         <v>0.2</v>
       </c>
-      <c r="K15" s="485"/>
-      <c r="L15" s="436">
+      <c r="K15" s="349"/>
+      <c r="L15" s="429">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="427"/>
-      <c r="B16" s="428"/>
-      <c r="C16" s="428" t="s">
+      <c r="A16" s="418"/>
+      <c r="B16" s="420"/>
+      <c r="C16" s="420" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="428"/>
-      <c r="E16" s="428"/>
-      <c r="F16" s="438" t="s">
+      <c r="D16" s="420"/>
+      <c r="E16" s="420"/>
+      <c r="F16" s="431" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="439"/>
-      <c r="H16" s="415"/>
-      <c r="I16" s="416"/>
-      <c r="J16" s="434"/>
-      <c r="K16" s="485"/>
-      <c r="L16" s="436"/>
+      <c r="G16" s="432"/>
+      <c r="H16" s="433"/>
+      <c r="I16" s="434"/>
+      <c r="J16" s="427"/>
+      <c r="K16" s="349"/>
+      <c r="L16" s="429"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="409"/>
-      <c r="B17" s="429"/>
-      <c r="C17" s="429" t="s">
+      <c r="A17" s="419"/>
+      <c r="B17" s="421"/>
+      <c r="C17" s="421" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="429"/>
-      <c r="E17" s="429"/>
-      <c r="F17" s="438" t="s">
+      <c r="D17" s="421"/>
+      <c r="E17" s="421"/>
+      <c r="F17" s="431" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="439"/>
-      <c r="H17" s="440"/>
-      <c r="I17" s="441"/>
-      <c r="J17" s="435"/>
-      <c r="K17" s="486"/>
-      <c r="L17" s="437"/>
+      <c r="G17" s="432"/>
+      <c r="H17" s="435"/>
+      <c r="I17" s="436"/>
+      <c r="J17" s="428"/>
+      <c r="K17" s="350"/>
+      <c r="L17" s="430"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="408" t="s">
+      <c r="A18" s="417" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="410" t="s">
+      <c r="B18" s="437" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="411"/>
-      <c r="D18" s="411"/>
-      <c r="E18" s="412"/>
-      <c r="F18" s="413" t="s">
+      <c r="C18" s="438"/>
+      <c r="D18" s="438"/>
+      <c r="E18" s="439"/>
+      <c r="F18" s="422" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="414"/>
-      <c r="H18" s="415"/>
-      <c r="I18" s="416"/>
+      <c r="G18" s="440"/>
+      <c r="H18" s="433"/>
+      <c r="I18" s="434"/>
       <c r="J18" s="298">
         <v>0.4</v>
       </c>
-      <c r="K18" s="487"/>
+      <c r="K18" s="305"/>
       <c r="L18" s="300">
         <f>K18*0.4</f>
         <v>0</v>
@@ -62071,23 +62004,23 @@
       <c r="M18" s="251"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="409"/>
-      <c r="B19" s="417" t="s">
+      <c r="A19" s="419"/>
+      <c r="B19" s="441" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="418"/>
-      <c r="D19" s="418"/>
-      <c r="E19" s="419"/>
-      <c r="F19" s="420" t="s">
+      <c r="C19" s="442"/>
+      <c r="D19" s="442"/>
+      <c r="E19" s="443"/>
+      <c r="F19" s="444" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="421"/>
-      <c r="H19" s="415"/>
-      <c r="I19" s="416"/>
+      <c r="G19" s="445"/>
+      <c r="H19" s="433"/>
+      <c r="I19" s="434"/>
       <c r="J19" s="298">
         <v>0.4</v>
       </c>
-      <c r="K19" s="487"/>
+      <c r="K19" s="305"/>
       <c r="L19" s="300">
         <f>K19*0.4</f>
         <v>0</v>
@@ -62097,19 +62030,19 @@
       <c r="A20" s="270" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="396" t="s">
+      <c r="B20" s="446" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="397"/>
-      <c r="D20" s="397"/>
-      <c r="E20" s="397"/>
-      <c r="F20" s="397"/>
-      <c r="G20" s="397"/>
-      <c r="H20" s="397"/>
-      <c r="I20" s="397"/>
-      <c r="J20" s="398"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="447"/>
+      <c r="E20" s="447"/>
+      <c r="F20" s="447"/>
+      <c r="G20" s="447"/>
+      <c r="H20" s="447"/>
+      <c r="I20" s="447"/>
+      <c r="J20" s="448"/>
       <c r="K20" s="299"/>
-      <c r="L20" s="488"/>
+      <c r="L20" s="306"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H21" s="265"/>
@@ -62125,90 +62058,90 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="399" t="s">
+      <c r="A23" s="449" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="400"/>
-      <c r="C23" s="400"/>
-      <c r="D23" s="400"/>
-      <c r="E23" s="400"/>
-      <c r="F23" s="400"/>
-      <c r="G23" s="400"/>
-      <c r="H23" s="400"/>
-      <c r="I23" s="400"/>
-      <c r="J23" s="400"/>
-      <c r="K23" s="400"/>
-      <c r="L23" s="401"/>
+      <c r="B23" s="450"/>
+      <c r="C23" s="450"/>
+      <c r="D23" s="450"/>
+      <c r="E23" s="450"/>
+      <c r="F23" s="450"/>
+      <c r="G23" s="450"/>
+      <c r="H23" s="450"/>
+      <c r="I23" s="450"/>
+      <c r="J23" s="450"/>
+      <c r="K23" s="450"/>
+      <c r="L23" s="451"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="402"/>
-      <c r="B24" s="403"/>
-      <c r="C24" s="403"/>
-      <c r="D24" s="403"/>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="403"/>
-      <c r="H24" s="403"/>
-      <c r="I24" s="403"/>
-      <c r="J24" s="403"/>
-      <c r="K24" s="403"/>
-      <c r="L24" s="404"/>
+      <c r="A24" s="452"/>
+      <c r="B24" s="453"/>
+      <c r="C24" s="453"/>
+      <c r="D24" s="453"/>
+      <c r="E24" s="453"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="453"/>
+      <c r="H24" s="453"/>
+      <c r="I24" s="453"/>
+      <c r="J24" s="453"/>
+      <c r="K24" s="453"/>
+      <c r="L24" s="454"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="402"/>
-      <c r="B25" s="403"/>
-      <c r="C25" s="403"/>
-      <c r="D25" s="403"/>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="403"/>
-      <c r="H25" s="403"/>
-      <c r="I25" s="403"/>
-      <c r="J25" s="403"/>
-      <c r="K25" s="403"/>
-      <c r="L25" s="404"/>
+      <c r="A25" s="452"/>
+      <c r="B25" s="453"/>
+      <c r="C25" s="453"/>
+      <c r="D25" s="453"/>
+      <c r="E25" s="453"/>
+      <c r="F25" s="453"/>
+      <c r="G25" s="453"/>
+      <c r="H25" s="453"/>
+      <c r="I25" s="453"/>
+      <c r="J25" s="453"/>
+      <c r="K25" s="453"/>
+      <c r="L25" s="454"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="402"/>
-      <c r="B26" s="403"/>
-      <c r="C26" s="403"/>
-      <c r="D26" s="403"/>
-      <c r="E26" s="403"/>
-      <c r="F26" s="403"/>
-      <c r="G26" s="403"/>
-      <c r="H26" s="403"/>
-      <c r="I26" s="403"/>
-      <c r="J26" s="403"/>
-      <c r="K26" s="403"/>
-      <c r="L26" s="404"/>
+      <c r="A26" s="452"/>
+      <c r="B26" s="453"/>
+      <c r="C26" s="453"/>
+      <c r="D26" s="453"/>
+      <c r="E26" s="453"/>
+      <c r="F26" s="453"/>
+      <c r="G26" s="453"/>
+      <c r="H26" s="453"/>
+      <c r="I26" s="453"/>
+      <c r="J26" s="453"/>
+      <c r="K26" s="453"/>
+      <c r="L26" s="454"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="405"/>
-      <c r="B27" s="406"/>
-      <c r="C27" s="406"/>
-      <c r="D27" s="406"/>
-      <c r="E27" s="406"/>
-      <c r="F27" s="406"/>
-      <c r="G27" s="406"/>
-      <c r="H27" s="406"/>
-      <c r="I27" s="406"/>
-      <c r="J27" s="406"/>
-      <c r="K27" s="406"/>
-      <c r="L27" s="407"/>
+      <c r="A27" s="455"/>
+      <c r="B27" s="456"/>
+      <c r="C27" s="456"/>
+      <c r="D27" s="456"/>
+      <c r="E27" s="456"/>
+      <c r="F27" s="456"/>
+      <c r="G27" s="456"/>
+      <c r="H27" s="456"/>
+      <c r="I27" s="456"/>
+      <c r="J27" s="456"/>
+      <c r="K27" s="456"/>
+      <c r="L27" s="457"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="394" t="s">
+      <c r="A29" s="458" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="394"/>
-      <c r="C29" s="394"/>
-      <c r="D29" s="394"/>
-      <c r="E29" s="394"/>
-      <c r="F29" s="394"/>
-      <c r="G29" s="394"/>
-      <c r="H29" s="394"/>
-      <c r="I29" s="495"/>
-      <c r="J29" s="495"/>
+      <c r="B29" s="458"/>
+      <c r="C29" s="458"/>
+      <c r="D29" s="458"/>
+      <c r="E29" s="458"/>
+      <c r="F29" s="458"/>
+      <c r="G29" s="458"/>
+      <c r="H29" s="458"/>
+      <c r="I29" s="459"/>
+      <c r="J29" s="459"/>
       <c r="K29" s="267" t="s">
         <v>45</v>
       </c>
@@ -62218,18 +62151,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="394" t="s">
+      <c r="A30" s="458" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="394"/>
-      <c r="C30" s="394"/>
-      <c r="D30" s="394"/>
-      <c r="E30" s="394"/>
-      <c r="F30" s="394"/>
-      <c r="G30" s="394"/>
-      <c r="H30" s="394"/>
-      <c r="I30" s="495"/>
-      <c r="J30" s="495"/>
+      <c r="B30" s="458"/>
+      <c r="C30" s="458"/>
+      <c r="D30" s="458"/>
+      <c r="E30" s="458"/>
+      <c r="F30" s="458"/>
+      <c r="G30" s="458"/>
+      <c r="H30" s="458"/>
+      <c r="I30" s="459"/>
+      <c r="J30" s="459"/>
       <c r="K30" s="266" t="s">
         <v>45</v>
       </c>
@@ -62239,18 +62172,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="394" t="s">
+      <c r="A31" s="458" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="394"/>
-      <c r="C31" s="394"/>
-      <c r="D31" s="394"/>
-      <c r="E31" s="394"/>
-      <c r="F31" s="394"/>
-      <c r="G31" s="394"/>
-      <c r="H31" s="394"/>
-      <c r="I31" s="495"/>
-      <c r="J31" s="495"/>
+      <c r="B31" s="458"/>
+      <c r="C31" s="458"/>
+      <c r="D31" s="458"/>
+      <c r="E31" s="458"/>
+      <c r="F31" s="458"/>
+      <c r="G31" s="458"/>
+      <c r="H31" s="458"/>
+      <c r="I31" s="459"/>
+      <c r="J31" s="459"/>
       <c r="K31" s="266" t="s">
         <v>100</v>
       </c>
@@ -62260,18 +62193,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="394" t="s">
+      <c r="A32" s="458" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="394"/>
-      <c r="C32" s="394"/>
-      <c r="D32" s="394"/>
-      <c r="E32" s="394"/>
-      <c r="F32" s="394"/>
-      <c r="G32" s="394"/>
-      <c r="H32" s="394"/>
-      <c r="I32" s="495"/>
-      <c r="J32" s="495"/>
+      <c r="B32" s="458"/>
+      <c r="C32" s="458"/>
+      <c r="D32" s="458"/>
+      <c r="E32" s="458"/>
+      <c r="F32" s="458"/>
+      <c r="G32" s="458"/>
+      <c r="H32" s="458"/>
+      <c r="I32" s="459"/>
+      <c r="J32" s="459"/>
       <c r="K32" s="266" t="s">
         <v>47</v>
       </c>
@@ -62281,21 +62214,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="394" t="s">
+      <c r="A33" s="458" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="394"/>
-      <c r="C33" s="394"/>
-      <c r="D33" s="394"/>
-      <c r="E33" s="394"/>
-      <c r="F33" s="394"/>
-      <c r="G33" s="394"/>
-      <c r="H33" s="394"/>
-      <c r="I33" s="395">
+      <c r="B33" s="458"/>
+      <c r="C33" s="458"/>
+      <c r="D33" s="458"/>
+      <c r="E33" s="458"/>
+      <c r="F33" s="458"/>
+      <c r="G33" s="458"/>
+      <c r="H33" s="458"/>
+      <c r="I33" s="463">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="395"/>
+      <c r="J33" s="463"/>
       <c r="K33" s="266" t="s">
         <v>100</v>
       </c>
@@ -62317,14 +62250,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="391" t="s">
+      <c r="F35" s="460" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="392"/>
-      <c r="H35" s="392"/>
-      <c r="I35" s="392"/>
-      <c r="J35" s="392"/>
-      <c r="K35" s="393"/>
+      <c r="G35" s="461"/>
+      <c r="H35" s="461"/>
+      <c r="I35" s="461"/>
+      <c r="J35" s="461"/>
+      <c r="K35" s="462"/>
       <c r="L35" s="261">
         <f>L34/10</f>
         <v>0</v>
@@ -62415,32 +62348,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -62451,18 +62370,32 @@
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="L15:L17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
@@ -62545,9 +62478,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="74"/>
-      <c r="C4" s="449"/>
-      <c r="D4" s="449"/>
-      <c r="E4" s="449"/>
+      <c r="C4" s="480"/>
+      <c r="D4" s="480"/>
+      <c r="E4" s="480"/>
       <c r="F4" s="246"/>
       <c r="H4" s="101"/>
       <c r="I4" s="100" t="s">
@@ -62562,10 +62495,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="86"/>
-      <c r="C5" s="448"/>
-      <c r="D5" s="448"/>
-      <c r="E5" s="448"/>
-      <c r="F5" s="448"/>
+      <c r="C5" s="479"/>
+      <c r="D5" s="479"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="479"/>
       <c r="H5" s="101"/>
       <c r="I5" s="100" t="s">
         <v>13</v>
@@ -62579,10 +62512,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="86"/>
-      <c r="C6" s="448"/>
-      <c r="D6" s="448"/>
-      <c r="E6" s="448"/>
-      <c r="F6" s="448"/>
+      <c r="C6" s="479"/>
+      <c r="D6" s="479"/>
+      <c r="E6" s="479"/>
+      <c r="F6" s="479"/>
       <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -62607,10 +62540,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="74"/>
-      <c r="C8" s="449"/>
-      <c r="D8" s="449"/>
-      <c r="E8" s="449"/>
-      <c r="F8" s="449"/>
+      <c r="C8" s="480"/>
+      <c r="D8" s="480"/>
+      <c r="E8" s="480"/>
+      <c r="F8" s="480"/>
       <c r="H8" s="93"/>
       <c r="I8" s="93"/>
       <c r="J8" s="93"/>
@@ -62622,10 +62555,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="448"/>
-      <c r="D9" s="448"/>
-      <c r="E9" s="448"/>
-      <c r="F9" s="448"/>
+      <c r="C9" s="479"/>
+      <c r="D9" s="479"/>
+      <c r="E9" s="479"/>
+      <c r="F9" s="479"/>
       <c r="H9" s="93"/>
       <c r="I9" s="93"/>
       <c r="J9" s="93"/>
@@ -62637,10 +62570,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="86"/>
-      <c r="C10" s="448"/>
-      <c r="D10" s="448"/>
-      <c r="E10" s="448"/>
-      <c r="F10" s="448"/>
+      <c r="C10" s="479"/>
+      <c r="D10" s="479"/>
+      <c r="E10" s="479"/>
+      <c r="F10" s="479"/>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
@@ -62694,7 +62627,7 @@
       <c r="I14" s="87"/>
       <c r="J14" s="86"/>
       <c r="K14" s="89"/>
-      <c r="L14" s="497"/>
+      <c r="L14" s="314"/>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="119" t="s">
@@ -62710,7 +62643,7 @@
       <c r="I15" s="87"/>
       <c r="J15" s="86"/>
       <c r="K15" s="85"/>
-      <c r="L15" s="497"/>
+      <c r="L15" s="314"/>
     </row>
     <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="119" t="s">
@@ -62726,7 +62659,7 @@
       <c r="I16" s="87"/>
       <c r="J16" s="86"/>
       <c r="K16" s="85"/>
-      <c r="L16" s="497"/>
+      <c r="L16" s="314"/>
     </row>
     <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
@@ -62742,7 +62675,7 @@
       <c r="I17" s="87"/>
       <c r="J17" s="86"/>
       <c r="K17" s="85"/>
-      <c r="L17" s="497"/>
+      <c r="L17" s="314"/>
     </row>
     <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="122" t="s">
@@ -62758,7 +62691,7 @@
       <c r="I18" s="87"/>
       <c r="J18" s="86"/>
       <c r="K18" s="85"/>
-      <c r="L18" s="497"/>
+      <c r="L18" s="314"/>
     </row>
     <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="122" t="s">
@@ -62774,7 +62707,7 @@
       <c r="I19" s="87"/>
       <c r="J19" s="86"/>
       <c r="K19" s="85"/>
-      <c r="L19" s="497"/>
+      <c r="L19" s="314"/>
     </row>
     <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K20" s="84"/>
@@ -62814,100 +62747,100 @@
       <c r="D23" s="48"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
-      <c r="G23" s="450" t="s">
+      <c r="G23" s="470" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="451"/>
-      <c r="I23" s="452"/>
-      <c r="J23" s="320" t="s">
+      <c r="H23" s="471"/>
+      <c r="I23" s="472"/>
+      <c r="J23" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="321"/>
-      <c r="L23" s="322"/>
+      <c r="K23" s="337"/>
+      <c r="L23" s="338"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="323" t="s">
+      <c r="A24" s="320" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="326" t="s">
+      <c r="B24" s="340" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="326" t="s">
+      <c r="C24" s="340" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="326"/>
-      <c r="E24" s="328" t="s">
+      <c r="D24" s="340"/>
+      <c r="E24" s="342" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="453"/>
-      <c r="G24" s="454"/>
-      <c r="H24" s="455"/>
-      <c r="I24" s="456"/>
-      <c r="J24" s="332">
+      <c r="F24" s="473"/>
+      <c r="G24" s="474"/>
+      <c r="H24" s="475"/>
+      <c r="I24" s="476"/>
+      <c r="J24" s="346">
         <v>0.2</v>
       </c>
-      <c r="K24" s="485"/>
-      <c r="L24" s="338">
+      <c r="K24" s="349"/>
+      <c r="L24" s="352">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="324"/>
-      <c r="B25" s="326"/>
-      <c r="C25" s="326" t="s">
+      <c r="A25" s="339"/>
+      <c r="B25" s="340"/>
+      <c r="C25" s="340" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="326"/>
-      <c r="E25" s="339" t="s">
+      <c r="D25" s="340"/>
+      <c r="E25" s="353" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="340"/>
-      <c r="G25" s="459"/>
-      <c r="H25" s="460"/>
-      <c r="I25" s="461"/>
-      <c r="J25" s="333"/>
-      <c r="K25" s="485"/>
-      <c r="L25" s="457"/>
+      <c r="F25" s="354"/>
+      <c r="G25" s="467"/>
+      <c r="H25" s="468"/>
+      <c r="I25" s="469"/>
+      <c r="J25" s="347"/>
+      <c r="K25" s="349"/>
+      <c r="L25" s="477"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="325"/>
-      <c r="B26" s="327"/>
-      <c r="C26" s="327" t="s">
+      <c r="A26" s="321"/>
+      <c r="B26" s="341"/>
+      <c r="C26" s="341" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="327"/>
-      <c r="E26" s="339" t="s">
+      <c r="D26" s="341"/>
+      <c r="E26" s="353" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="340"/>
-      <c r="G26" s="459"/>
-      <c r="H26" s="460"/>
-      <c r="I26" s="461"/>
-      <c r="J26" s="334"/>
-      <c r="K26" s="486"/>
-      <c r="L26" s="458"/>
+      <c r="F26" s="354"/>
+      <c r="G26" s="467"/>
+      <c r="H26" s="468"/>
+      <c r="I26" s="469"/>
+      <c r="J26" s="348"/>
+      <c r="K26" s="350"/>
+      <c r="L26" s="478"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="323" t="s">
+      <c r="A27" s="320" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="348" t="s">
+      <c r="B27" s="322" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="349"/>
-      <c r="D27" s="350"/>
-      <c r="E27" s="351" t="s">
+      <c r="C27" s="323"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="352"/>
-      <c r="G27" s="462"/>
-      <c r="H27" s="463"/>
-      <c r="I27" s="464"/>
+      <c r="F27" s="326"/>
+      <c r="G27" s="464"/>
+      <c r="H27" s="465"/>
+      <c r="I27" s="466"/>
       <c r="J27" s="241">
         <v>0.4</v>
       </c>
-      <c r="K27" s="487"/>
+      <c r="K27" s="305"/>
       <c r="L27" s="244">
         <f>K27*0.4</f>
         <v>0</v>
@@ -62915,23 +62848,23 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="325"/>
-      <c r="B28" s="353" t="s">
+      <c r="A28" s="321"/>
+      <c r="B28" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="354"/>
-      <c r="D28" s="355"/>
-      <c r="E28" s="356" t="s">
+      <c r="C28" s="330"/>
+      <c r="D28" s="331"/>
+      <c r="E28" s="332" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="357"/>
-      <c r="G28" s="459"/>
-      <c r="H28" s="460"/>
-      <c r="I28" s="461"/>
+      <c r="F28" s="333"/>
+      <c r="G28" s="467"/>
+      <c r="H28" s="468"/>
+      <c r="I28" s="469"/>
       <c r="J28" s="241">
         <v>0.4</v>
       </c>
-      <c r="K28" s="487"/>
+      <c r="K28" s="305"/>
       <c r="L28" s="244">
         <f>K28*0.4</f>
         <v>0</v>
@@ -62941,22 +62874,22 @@
       <c r="A29" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="345" t="s">
+      <c r="B29" s="317" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="346"/>
-      <c r="D29" s="346"/>
-      <c r="E29" s="346"/>
-      <c r="F29" s="346"/>
-      <c r="G29" s="346"/>
-      <c r="H29" s="346"/>
-      <c r="I29" s="347"/>
+      <c r="C29" s="318"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="319"/>
       <c r="J29" s="243"/>
       <c r="K29" s="247">
         <f>J29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="498"/>
+      <c r="L29" s="315"/>
     </row>
     <row r="30" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="52"/>
@@ -63067,14 +63000,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -63091,12 +63022,14 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
@@ -63175,9 +63108,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="110"/>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
       <c r="F4" s="248"/>
       <c r="H4" s="78" t="s">
         <v>11</v>
@@ -63192,10 +63125,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="114"/>
-      <c r="C5" s="465"/>
-      <c r="D5" s="465"/>
-      <c r="E5" s="465"/>
-      <c r="F5" s="465"/>
+      <c r="C5" s="487"/>
+      <c r="D5" s="487"/>
+      <c r="E5" s="487"/>
+      <c r="F5" s="487"/>
       <c r="H5" s="78" t="s">
         <v>13</v>
       </c>
@@ -63209,10 +63142,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="114"/>
-      <c r="C6" s="465"/>
-      <c r="D6" s="465"/>
-      <c r="E6" s="465"/>
-      <c r="F6" s="465"/>
+      <c r="C6" s="487"/>
+      <c r="D6" s="487"/>
+      <c r="E6" s="487"/>
+      <c r="F6" s="487"/>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
@@ -63241,10 +63174,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="110"/>
-      <c r="C8" s="466"/>
-      <c r="D8" s="466"/>
-      <c r="E8" s="466"/>
-      <c r="F8" s="466"/>
+      <c r="C8" s="488"/>
+      <c r="D8" s="488"/>
+      <c r="E8" s="488"/>
+      <c r="F8" s="488"/>
       <c r="H8" s="116"/>
       <c r="I8" s="116"/>
       <c r="J8" s="116"/>
@@ -63256,10 +63189,10 @@
         <v>19</v>
       </c>
       <c r="B9" s="114"/>
-      <c r="C9" s="465"/>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
-      <c r="F9" s="465"/>
+      <c r="C9" s="487"/>
+      <c r="D9" s="487"/>
+      <c r="E9" s="487"/>
+      <c r="F9" s="487"/>
       <c r="H9" s="116"/>
       <c r="I9" s="116"/>
       <c r="J9" s="116"/>
@@ -63271,10 +63204,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="114"/>
-      <c r="C10" s="465"/>
-      <c r="D10" s="465"/>
-      <c r="E10" s="465"/>
-      <c r="F10" s="465"/>
+      <c r="C10" s="487"/>
+      <c r="D10" s="487"/>
+      <c r="E10" s="487"/>
+      <c r="F10" s="487"/>
       <c r="H10" s="116"/>
       <c r="I10" s="116"/>
       <c r="J10" s="116"/>
@@ -63311,97 +63244,97 @@
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="318" t="s">
+      <c r="G13" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="319"/>
-      <c r="I13" s="320" t="s">
+      <c r="H13" s="335"/>
+      <c r="I13" s="336" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="321"/>
-      <c r="K13" s="322"/>
+      <c r="J13" s="337"/>
+      <c r="K13" s="338"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="358" t="s">
+      <c r="A14" s="388" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="361" t="s">
+      <c r="B14" s="401" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="361" t="s">
+      <c r="C14" s="401" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="361"/>
-      <c r="E14" s="363" t="s">
+      <c r="D14" s="401"/>
+      <c r="E14" s="393" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="364"/>
-      <c r="G14" s="330"/>
-      <c r="H14" s="331"/>
-      <c r="I14" s="332">
+      <c r="F14" s="403"/>
+      <c r="G14" s="344"/>
+      <c r="H14" s="345"/>
+      <c r="I14" s="346">
         <v>0.2</v>
       </c>
-      <c r="J14" s="485">
+      <c r="J14" s="349">
         <v>0</v>
       </c>
-      <c r="K14" s="337">
+      <c r="K14" s="351">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="359"/>
-      <c r="B15" s="361"/>
-      <c r="C15" s="361" t="s">
+      <c r="A15" s="400"/>
+      <c r="B15" s="401"/>
+      <c r="C15" s="401" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="361"/>
-      <c r="E15" s="365" t="s">
+      <c r="D15" s="401"/>
+      <c r="E15" s="404" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="366"/>
-      <c r="G15" s="341"/>
-      <c r="H15" s="342"/>
-      <c r="I15" s="333"/>
-      <c r="J15" s="485"/>
-      <c r="K15" s="337"/>
+      <c r="F15" s="405"/>
+      <c r="G15" s="327"/>
+      <c r="H15" s="328"/>
+      <c r="I15" s="347"/>
+      <c r="J15" s="349"/>
+      <c r="K15" s="351"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="360"/>
-      <c r="B16" s="362"/>
-      <c r="C16" s="362" t="s">
+      <c r="A16" s="389"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="362"/>
-      <c r="E16" s="365" t="s">
+      <c r="D16" s="402"/>
+      <c r="E16" s="404" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="366"/>
-      <c r="G16" s="343"/>
-      <c r="H16" s="344"/>
-      <c r="I16" s="334"/>
-      <c r="J16" s="486"/>
-      <c r="K16" s="338"/>
+      <c r="F16" s="405"/>
+      <c r="G16" s="355"/>
+      <c r="H16" s="356"/>
+      <c r="I16" s="348"/>
+      <c r="J16" s="350"/>
+      <c r="K16" s="352"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358" t="s">
+      <c r="A17" s="388" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="367" t="s">
+      <c r="B17" s="390" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="368"/>
-      <c r="D17" s="369"/>
-      <c r="E17" s="363" t="s">
+      <c r="C17" s="391"/>
+      <c r="D17" s="392"/>
+      <c r="E17" s="393" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="370"/>
-      <c r="G17" s="341"/>
-      <c r="H17" s="342"/>
+      <c r="F17" s="394"/>
+      <c r="G17" s="327"/>
+      <c r="H17" s="328"/>
       <c r="I17" s="241">
         <v>0.4</v>
       </c>
-      <c r="J17" s="487">
+      <c r="J17" s="305">
         <v>0</v>
       </c>
       <c r="K17" s="244">
@@ -63411,22 +63344,22 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="360"/>
-      <c r="B18" s="371" t="s">
+      <c r="A18" s="389"/>
+      <c r="B18" s="395" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="372"/>
-      <c r="D18" s="373"/>
-      <c r="E18" s="374" t="s">
+      <c r="C18" s="396"/>
+      <c r="D18" s="397"/>
+      <c r="E18" s="398" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="375"/>
-      <c r="G18" s="341"/>
-      <c r="H18" s="342"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="327"/>
+      <c r="H18" s="328"/>
       <c r="I18" s="241">
         <v>0.4</v>
       </c>
-      <c r="J18" s="487">
+      <c r="J18" s="305">
         <v>0</v>
       </c>
       <c r="K18" s="244">
@@ -63438,18 +63371,18 @@
       <c r="A19" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="345" t="s">
+      <c r="B19" s="317" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="346"/>
-      <c r="D19" s="346"/>
-      <c r="E19" s="346"/>
-      <c r="F19" s="346"/>
-      <c r="G19" s="346"/>
-      <c r="H19" s="346"/>
-      <c r="I19" s="347"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="319"/>
       <c r="J19" s="242"/>
-      <c r="K19" s="488">
+      <c r="K19" s="306">
         <v>0</v>
       </c>
     </row>
@@ -63514,19 +63447,19 @@
       <c r="A23" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="499">
+      <c r="B23" s="316">
         <v>0</v>
       </c>
-      <c r="C23" s="499">
+      <c r="C23" s="316">
         <v>0</v>
       </c>
-      <c r="D23" s="499">
+      <c r="D23" s="316">
         <v>0</v>
       </c>
-      <c r="E23" s="499">
+      <c r="E23" s="316">
         <v>0</v>
       </c>
-      <c r="F23" s="499">
+      <c r="F23" s="316">
         <v>0</v>
       </c>
       <c r="G23" s="133">
@@ -63569,88 +63502,88 @@
       <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="379" t="s">
+      <c r="A26" s="376" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="380"/>
-      <c r="C26" s="380"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="380"/>
-      <c r="F26" s="380"/>
-      <c r="G26" s="380"/>
-      <c r="H26" s="380"/>
-      <c r="I26" s="380"/>
-      <c r="J26" s="380"/>
-      <c r="K26" s="381"/>
+      <c r="B26" s="377"/>
+      <c r="C26" s="377"/>
+      <c r="D26" s="377"/>
+      <c r="E26" s="377"/>
+      <c r="F26" s="377"/>
+      <c r="G26" s="377"/>
+      <c r="H26" s="377"/>
+      <c r="I26" s="377"/>
+      <c r="J26" s="377"/>
+      <c r="K26" s="378"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="382"/>
-      <c r="B27" s="383"/>
-      <c r="C27" s="383"/>
-      <c r="D27" s="383"/>
-      <c r="E27" s="383"/>
-      <c r="F27" s="383"/>
-      <c r="G27" s="383"/>
-      <c r="H27" s="383"/>
-      <c r="I27" s="383"/>
-      <c r="J27" s="383"/>
-      <c r="K27" s="384"/>
+      <c r="A27" s="379"/>
+      <c r="B27" s="380"/>
+      <c r="C27" s="380"/>
+      <c r="D27" s="380"/>
+      <c r="E27" s="380"/>
+      <c r="F27" s="380"/>
+      <c r="G27" s="380"/>
+      <c r="H27" s="380"/>
+      <c r="I27" s="380"/>
+      <c r="J27" s="380"/>
+      <c r="K27" s="381"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="382"/>
-      <c r="B28" s="383"/>
-      <c r="C28" s="383"/>
-      <c r="D28" s="383"/>
-      <c r="E28" s="383"/>
-      <c r="F28" s="383"/>
-      <c r="G28" s="383"/>
-      <c r="H28" s="383"/>
-      <c r="I28" s="383"/>
-      <c r="J28" s="383"/>
-      <c r="K28" s="384"/>
+      <c r="A28" s="379"/>
+      <c r="B28" s="380"/>
+      <c r="C28" s="380"/>
+      <c r="D28" s="380"/>
+      <c r="E28" s="380"/>
+      <c r="F28" s="380"/>
+      <c r="G28" s="380"/>
+      <c r="H28" s="380"/>
+      <c r="I28" s="380"/>
+      <c r="J28" s="380"/>
+      <c r="K28" s="381"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="382"/>
-      <c r="B29" s="383"/>
-      <c r="C29" s="383"/>
-      <c r="D29" s="383"/>
-      <c r="E29" s="383"/>
-      <c r="F29" s="383"/>
-      <c r="G29" s="383"/>
-      <c r="H29" s="383"/>
-      <c r="I29" s="383"/>
-      <c r="J29" s="383"/>
-      <c r="K29" s="384"/>
+      <c r="A29" s="379"/>
+      <c r="B29" s="380"/>
+      <c r="C29" s="380"/>
+      <c r="D29" s="380"/>
+      <c r="E29" s="380"/>
+      <c r="F29" s="380"/>
+      <c r="G29" s="380"/>
+      <c r="H29" s="380"/>
+      <c r="I29" s="380"/>
+      <c r="J29" s="380"/>
+      <c r="K29" s="381"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="385"/>
-      <c r="B30" s="386"/>
-      <c r="C30" s="386"/>
-      <c r="D30" s="386"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="386"/>
-      <c r="G30" s="386"/>
-      <c r="H30" s="386"/>
-      <c r="I30" s="386"/>
-      <c r="J30" s="386"/>
-      <c r="K30" s="387"/>
+      <c r="A30" s="382"/>
+      <c r="B30" s="383"/>
+      <c r="C30" s="383"/>
+      <c r="D30" s="383"/>
+      <c r="E30" s="383"/>
+      <c r="F30" s="383"/>
+      <c r="G30" s="383"/>
+      <c r="H30" s="383"/>
+      <c r="I30" s="383"/>
+      <c r="J30" s="383"/>
+      <c r="K30" s="384"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="470" t="s">
+      <c r="A32" s="484" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="470"/>
-      <c r="C32" s="470"/>
-      <c r="D32" s="470"/>
-      <c r="E32" s="470"/>
-      <c r="F32" s="470"/>
-      <c r="G32" s="470"/>
-      <c r="H32" s="471">
+      <c r="B32" s="484"/>
+      <c r="C32" s="484"/>
+      <c r="D32" s="484"/>
+      <c r="E32" s="484"/>
+      <c r="F32" s="484"/>
+      <c r="G32" s="484"/>
+      <c r="H32" s="485">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="471"/>
+      <c r="I32" s="485"/>
       <c r="J32" s="150" t="s">
         <v>46</v>
       </c>
@@ -63660,20 +63593,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="470" t="s">
+      <c r="A33" s="484" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="470"/>
-      <c r="C33" s="470"/>
-      <c r="D33" s="470"/>
-      <c r="E33" s="470"/>
-      <c r="F33" s="470"/>
-      <c r="G33" s="470"/>
-      <c r="H33" s="389">
+      <c r="B33" s="484"/>
+      <c r="C33" s="484"/>
+      <c r="D33" s="484"/>
+      <c r="E33" s="484"/>
+      <c r="F33" s="484"/>
+      <c r="G33" s="484"/>
+      <c r="H33" s="386">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="472"/>
+      <c r="I33" s="486"/>
       <c r="J33" s="151" t="s">
         <v>62</v>
       </c>
@@ -63705,14 +63638,14 @@
       <c r="B35" s="152"/>
       <c r="C35" s="152"/>
       <c r="D35" s="152"/>
-      <c r="E35" s="467" t="s">
+      <c r="E35" s="481" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="468"/>
-      <c r="G35" s="468"/>
-      <c r="H35" s="468"/>
-      <c r="I35" s="468"/>
-      <c r="J35" s="469"/>
+      <c r="F35" s="482"/>
+      <c r="G35" s="482"/>
+      <c r="H35" s="482"/>
+      <c r="I35" s="482"/>
+      <c r="J35" s="483"/>
       <c r="K35" s="58">
         <f>K34/4</f>
         <v>0</v>
@@ -63803,20 +63736,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -63833,12 +63758,20 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
